--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT4" t="n">
         <v>2</v>
@@ -3136,7 +3136,7 @@
         <v>1.25</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT15" t="n">
         <v>1.69</v>
@@ -5572,7 +5572,7 @@
         <v>1.62</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU25" t="n">
         <v>1.02</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT30" t="n">
         <v>1.31</v>
@@ -8414,7 +8414,7 @@
         <v>2.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU39" t="n">
         <v>1.21</v>
@@ -8817,7 +8817,7 @@
         <v>0.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT41" t="n">
         <v>1.42</v>
@@ -10644,10 +10644,10 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU50" t="n">
         <v>1.09</v>
@@ -12880,7 +12880,7 @@
         <v>1.75</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU61" t="n">
         <v>1.43</v>
@@ -13486,7 +13486,7 @@
         <v>0.2</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT64" t="n">
         <v>0.67</v>
@@ -14707,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU70" t="n">
         <v>1.11</v>
@@ -15922,7 +15922,7 @@
         <v>0.8</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT76" t="n">
         <v>0.6899999999999999</v>
@@ -16534,7 +16534,7 @@
         <v>1.54</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU79" t="n">
         <v>1.69</v>
@@ -16737,7 +16737,7 @@
         <v>2.08</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU80" t="n">
         <v>1.87</v>
@@ -18155,7 +18155,7 @@
         <v>2.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT87" t="n">
         <v>2.75</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT100" t="n">
         <v>1.31</v>
@@ -21000,7 +21000,7 @@
         <v>0.85</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU101" t="n">
         <v>1.07</v>
@@ -23030,7 +23030,7 @@
         <v>1.75</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU111" t="n">
         <v>1.46</v>
@@ -23433,7 +23433,7 @@
         <v>1.56</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT113" t="n">
         <v>1.42</v>
@@ -25463,7 +25463,7 @@
         <v>0.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -25872,7 +25872,7 @@
         <v>1</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU125" t="n">
         <v>1.24</v>
@@ -27899,7 +27899,7 @@
         <v>0.73</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AT135" t="n">
         <v>0.67</v>
@@ -29120,7 +29120,7 @@
         <v>0.85</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU141" t="n">
         <v>1.16</v>
@@ -31202,6 +31202,209 @@
       </c>
       <c r="BK151" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5690849</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45037.60416666666</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>2</v>
+      </c>
+      <c r="M152" t="n">
+        <v>2</v>
+      </c>
+      <c r="N152" t="n">
+        <v>4</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['63', '76']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['5', '53']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>3</v>
+      </c>
+      <c r="R152" t="n">
+        <v>3</v>
+      </c>
+      <c r="S152" t="n">
+        <v>6</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0</v>
+      </c>
+      <c r="U152" t="n">
+        <v>0</v>
+      </c>
+      <c r="V152" t="n">
+        <v>0</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0</v>
+      </c>
+      <c r="X152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.54</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0.85</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT11" t="n">
         <v>1.69</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT13" t="n">
         <v>0.85</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU18" t="n">
         <v>1.93</v>
@@ -4354,7 +4354,7 @@
         <v>1.54</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU19" t="n">
         <v>1.93</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT20" t="n">
         <v>1.31</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU21" t="n">
         <v>1.14</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU23" t="n">
         <v>1.02</v>
@@ -5775,7 +5775,7 @@
         <v>2.08</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU26" t="n">
         <v>1.53</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU27" t="n">
         <v>1</v>
@@ -6993,7 +6993,7 @@
         <v>0.92</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU32" t="n">
         <v>0.9399999999999999</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT33" t="n">
         <v>0.6899999999999999</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT36" t="n">
         <v>1.54</v>
@@ -8208,10 +8208,10 @@
         <v>1.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU38" t="n">
         <v>1.63</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU40" t="n">
         <v>1.19</v>
@@ -8820,7 +8820,7 @@
         <v>0.62</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU41" t="n">
         <v>1.13</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU42" t="n">
         <v>1.38</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT43" t="n">
         <v>0.6899999999999999</v>
@@ -10441,7 +10441,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT49" t="n">
         <v>1.31</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU51" t="n">
         <v>1.12</v>
@@ -11050,10 +11050,10 @@
         <v>0.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU52" t="n">
         <v>1.63</v>
@@ -11256,7 +11256,7 @@
         <v>2.33</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU53" t="n">
         <v>1.62</v>
@@ -11459,7 +11459,7 @@
         <v>2.08</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU54" t="n">
         <v>1.87</v>
@@ -11659,10 +11659,10 @@
         <v>1.75</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU55" t="n">
         <v>1.25</v>
@@ -12271,7 +12271,7 @@
         <v>0.92</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU58" t="n">
         <v>0.95</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT60" t="n">
         <v>2</v>
@@ -12877,7 +12877,7 @@
         <v>0.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT61" t="n">
         <v>0.85</v>
@@ -13083,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU62" t="n">
         <v>1.27</v>
@@ -13489,7 +13489,7 @@
         <v>0.62</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU64" t="n">
         <v>1.17</v>
@@ -14095,10 +14095,10 @@
         <v>0.83</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU67" t="n">
         <v>1.17</v>
@@ -14301,7 +14301,7 @@
         <v>0.85</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU68" t="n">
         <v>1.16</v>
@@ -15110,7 +15110,7 @@
         <v>2.4</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT72" t="n">
         <v>2.75</v>
@@ -15519,7 +15519,7 @@
         <v>1.54</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU74" t="n">
         <v>1.67</v>
@@ -16128,7 +16128,7 @@
         <v>1.62</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU77" t="n">
         <v>0.9399999999999999</v>
@@ -16328,7 +16328,7 @@
         <v>1.67</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT78" t="n">
         <v>1.31</v>
@@ -16940,7 +16940,7 @@
         <v>1.62</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU81" t="n">
         <v>1</v>
@@ -17343,7 +17343,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT83" t="n">
         <v>1.54</v>
@@ -17546,7 +17546,7 @@
         <v>1.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT84" t="n">
         <v>0.6899999999999999</v>
@@ -17752,7 +17752,7 @@
         <v>2.33</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU85" t="n">
         <v>1.7</v>
@@ -17955,7 +17955,7 @@
         <v>0.92</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU86" t="n">
         <v>0.93</v>
@@ -18361,7 +18361,7 @@
         <v>0.85</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU88" t="n">
         <v>1.09</v>
@@ -18764,7 +18764,7 @@
         <v>1.57</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT90" t="n">
         <v>1.31</v>
@@ -19173,7 +19173,7 @@
         <v>0.92</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU92" t="n">
         <v>1</v>
@@ -19576,10 +19576,10 @@
         <v>0.63</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU94" t="n">
         <v>1.21</v>
@@ -19779,7 +19779,7 @@
         <v>1.43</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT95" t="n">
         <v>1.54</v>
@@ -20185,7 +20185,7 @@
         <v>1.86</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT97" t="n">
         <v>2</v>
@@ -20391,7 +20391,7 @@
         <v>2.33</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU98" t="n">
         <v>1.77</v>
@@ -20594,7 +20594,7 @@
         <v>2.08</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU99" t="n">
         <v>1.86</v>
@@ -21403,10 +21403,10 @@
         <v>1.75</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU103" t="n">
         <v>1.56</v>
@@ -22418,7 +22418,7 @@
         <v>2.63</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT108" t="n">
         <v>2.75</v>
@@ -22824,10 +22824,10 @@
         <v>0.67</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU110" t="n">
         <v>1.4</v>
@@ -23027,7 +23027,7 @@
         <v>0.78</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT111" t="n">
         <v>0.85</v>
@@ -23233,7 +23233,7 @@
         <v>2.33</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU112" t="n">
         <v>1.69</v>
@@ -23436,7 +23436,7 @@
         <v>0.62</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU113" t="n">
         <v>1.14</v>
@@ -23842,7 +23842,7 @@
         <v>2.08</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU115" t="n">
         <v>1.85</v>
@@ -24854,7 +24854,7 @@
         <v>1.78</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT120" t="n">
         <v>1.69</v>
@@ -25260,7 +25260,7 @@
         <v>2.7</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT122" t="n">
         <v>2.75</v>
@@ -25466,7 +25466,7 @@
         <v>0.62</v>
       </c>
       <c r="AT123" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU123" t="n">
         <v>1.11</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU127" t="n">
         <v>1.04</v>
@@ -26478,7 +26478,7 @@
         <v>2</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT128" t="n">
         <v>2</v>
@@ -26887,7 +26887,7 @@
         <v>1.62</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU130" t="n">
         <v>0.92</v>
@@ -27290,10 +27290,10 @@
         <v>1.7</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU132" t="n">
         <v>1.41</v>
@@ -27699,7 +27699,7 @@
         <v>0.92</v>
       </c>
       <c r="AT134" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU134" t="n">
         <v>1.04</v>
@@ -27902,7 +27902,7 @@
         <v>0.62</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU135" t="n">
         <v>1.12</v>
@@ -28305,7 +28305,7 @@
         <v>1.82</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT137" t="n">
         <v>1.69</v>
@@ -28714,7 +28714,7 @@
         <v>2.33</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU139" t="n">
         <v>1.62</v>
@@ -28914,7 +28914,7 @@
         <v>1.55</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT140" t="n">
         <v>1.54</v>
@@ -29526,7 +29526,7 @@
         <v>1.54</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU143" t="n">
         <v>1.63</v>
@@ -29929,7 +29929,7 @@
         <v>2.09</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT145" t="n">
         <v>2</v>
@@ -31269,10 +31269,10 @@
         <v>3</v>
       </c>
       <c r="R152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S152" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T152" t="n">
         <v>0</v>
@@ -31392,19 +31392,831 @@
         <v>4</v>
       </c>
       <c r="BG152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI152" t="n">
         <v>4</v>
       </c>
-      <c r="BH152" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI152" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5690850</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45038.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>4</v>
+      </c>
+      <c r="R153" t="n">
+        <v>7</v>
+      </c>
+      <c r="S153" t="n">
+        <v>11</v>
+      </c>
+      <c r="T153" t="n">
+        <v>0</v>
+      </c>
+      <c r="U153" t="n">
+        <v>0</v>
+      </c>
+      <c r="V153" t="n">
+        <v>0</v>
+      </c>
+      <c r="W153" t="n">
+        <v>0</v>
+      </c>
+      <c r="X153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG153" t="n">
         <v>6</v>
       </c>
-      <c r="BK152" t="n">
+      <c r="BH153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI153" t="n">
         <v>6</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5690851</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45038.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['57', '75']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>8</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1</v>
+      </c>
+      <c r="S154" t="n">
+        <v>9</v>
+      </c>
+      <c r="T154" t="n">
+        <v>0</v>
+      </c>
+      <c r="U154" t="n">
+        <v>0</v>
+      </c>
+      <c r="V154" t="n">
+        <v>0</v>
+      </c>
+      <c r="W154" t="n">
+        <v>0</v>
+      </c>
+      <c r="X154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5690853</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45039.39583333334</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>2</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>2</v>
+      </c>
+      <c r="L155" t="n">
+        <v>3</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>4</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['10', '34', '80']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>4</v>
+      </c>
+      <c r="R155" t="n">
+        <v>6</v>
+      </c>
+      <c r="S155" t="n">
+        <v>10</v>
+      </c>
+      <c r="T155" t="n">
+        <v>0</v>
+      </c>
+      <c r="U155" t="n">
+        <v>0</v>
+      </c>
+      <c r="V155" t="n">
+        <v>0</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0</v>
+      </c>
+      <c r="X155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5690852</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45039.39583333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>2</v>
+      </c>
+      <c r="N156" t="n">
+        <v>3</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['49', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>8</v>
+      </c>
+      <c r="R156" t="n">
+        <v>3</v>
+      </c>
+      <c r="S156" t="n">
+        <v>11</v>
+      </c>
+      <c r="T156" t="n">
+        <v>0</v>
+      </c>
+      <c r="U156" t="n">
+        <v>0</v>
+      </c>
+      <c r="V156" t="n">
+        <v>0</v>
+      </c>
+      <c r="W156" t="n">
+        <v>0</v>
+      </c>
+      <c r="X156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK156"/>
+  <dimension ref="A1:BK157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.92</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU16" t="n">
         <v>1.21</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT22" t="n">
         <v>0.6899999999999999</v>
@@ -6178,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT28" t="n">
         <v>1.69</v>
@@ -6790,7 +6790,7 @@
         <v>1.62</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU31" t="n">
         <v>0.9</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT39" t="n">
         <v>0.85</v>
@@ -9632,7 +9632,7 @@
         <v>0.85</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU45" t="n">
         <v>1.09</v>
@@ -11253,7 +11253,7 @@
         <v>1.25</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT53" t="n">
         <v>1.15</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU63" t="n">
         <v>1.1</v>
@@ -13689,7 +13689,7 @@
         <v>1.2</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT65" t="n">
         <v>1.31</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT71" t="n">
         <v>1.54</v>
@@ -15113,7 +15113,7 @@
         <v>1.62</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU72" t="n">
         <v>1.58</v>
@@ -17749,7 +17749,7 @@
         <v>0.71</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT85" t="n">
         <v>0.6899999999999999</v>
@@ -18158,7 +18158,7 @@
         <v>0.62</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU87" t="n">
         <v>1.15</v>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU96" t="n">
         <v>1.27</v>
@@ -20388,7 +20388,7 @@
         <v>1.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT98" t="n">
         <v>1.31</v>
@@ -22421,7 +22421,7 @@
         <v>1.15</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU108" t="n">
         <v>1.22</v>
@@ -23230,7 +23230,7 @@
         <v>1.56</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT112" t="n">
         <v>1.54</v>
@@ -25060,7 +25060,7 @@
         <v>1.54</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU121" t="n">
         <v>1.63</v>
@@ -25263,7 +25263,7 @@
         <v>1.85</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU122" t="n">
         <v>1.39</v>
@@ -25666,7 +25666,7 @@
         <v>1.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT124" t="n">
         <v>1.31</v>
@@ -28511,7 +28511,7 @@
         <v>1</v>
       </c>
       <c r="AT138" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU138" t="n">
         <v>1.25</v>
@@ -28711,7 +28711,7 @@
         <v>1.55</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT139" t="n">
         <v>1.31</v>
@@ -32074,7 +32074,7 @@
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>['49', '90+1']</t>
+          <t>['48', '90']</t>
         </is>
       </c>
       <c r="Q156" t="n">
@@ -32217,6 +32217,209 @@
       </c>
       <c r="BK156" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5690854</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45039.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['54', '73']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>4</v>
+      </c>
+      <c r="R157" t="n">
+        <v>5</v>
+      </c>
+      <c r="S157" t="n">
+        <v>9</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0</v>
+      </c>
+      <c r="U157" t="n">
+        <v>0</v>
+      </c>
+      <c r="V157" t="n">
+        <v>0</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0</v>
+      </c>
+      <c r="X157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK157"/>
+  <dimension ref="A1:BK159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.08</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT7" t="n">
         <v>0.6899999999999999</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.92</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU16" t="n">
         <v>1.21</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU17" t="n">
         <v>0.7</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>1.15</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT22" t="n">
         <v>0.6899999999999999</v>
@@ -6178,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT28" t="n">
         <v>1.69</v>
@@ -6587,7 +6587,7 @@
         <v>0.62</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU30" t="n">
         <v>1.02</v>
@@ -6790,7 +6790,7 @@
         <v>1.62</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU31" t="n">
         <v>0.9</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT34" t="n">
         <v>2</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU35" t="n">
         <v>1.49</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT39" t="n">
         <v>0.85</v>
@@ -9426,7 +9426,7 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT44" t="n">
         <v>1.54</v>
@@ -9632,7 +9632,7 @@
         <v>0.85</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU45" t="n">
         <v>1.09</v>
@@ -9835,7 +9835,7 @@
         <v>0.92</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU46" t="n">
         <v>1.04</v>
@@ -11253,7 +11253,7 @@
         <v>1.25</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT53" t="n">
         <v>1.15</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU63" t="n">
         <v>1.1</v>
@@ -13689,7 +13689,7 @@
         <v>1.2</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT65" t="n">
         <v>1.31</v>
@@ -13892,10 +13892,10 @@
         <v>1.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU66" t="n">
         <v>1.74</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT71" t="n">
         <v>1.54</v>
@@ -15113,7 +15113,7 @@
         <v>1.62</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU72" t="n">
         <v>1.58</v>
@@ -15516,7 +15516,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT74" t="n">
         <v>1.54</v>
@@ -16331,7 +16331,7 @@
         <v>1.85</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU78" t="n">
         <v>1.42</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT79" t="n">
         <v>0.85</v>
@@ -17749,7 +17749,7 @@
         <v>0.71</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT85" t="n">
         <v>0.6899999999999999</v>
@@ -18158,7 +18158,7 @@
         <v>0.62</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU87" t="n">
         <v>1.15</v>
@@ -18767,7 +18767,7 @@
         <v>1.15</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU90" t="n">
         <v>1.14</v>
@@ -18967,7 +18967,7 @@
         <v>2</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT91" t="n">
         <v>1.69</v>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU96" t="n">
         <v>1.27</v>
@@ -20388,7 +20388,7 @@
         <v>1.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT98" t="n">
         <v>1.31</v>
@@ -22218,7 +22218,7 @@
         <v>1.62</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU107" t="n">
         <v>0.96</v>
@@ -22421,7 +22421,7 @@
         <v>1.15</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU108" t="n">
         <v>1.22</v>
@@ -22621,7 +22621,7 @@
         <v>0.88</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT109" t="n">
         <v>0.6899999999999999</v>
@@ -23230,7 +23230,7 @@
         <v>1.56</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT112" t="n">
         <v>1.54</v>
@@ -24451,7 +24451,7 @@
         <v>0.85</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU118" t="n">
         <v>1.17</v>
@@ -25057,10 +25057,10 @@
         <v>2.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU121" t="n">
         <v>1.63</v>
@@ -25263,7 +25263,7 @@
         <v>1.85</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU122" t="n">
         <v>1.39</v>
@@ -25666,10 +25666,10 @@
         <v>1.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU124" t="n">
         <v>1.61</v>
@@ -26072,7 +26072,7 @@
         <v>1.6</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT126" t="n">
         <v>1.31</v>
@@ -28511,7 +28511,7 @@
         <v>1</v>
       </c>
       <c r="AT138" t="n">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU138" t="n">
         <v>1.25</v>
@@ -28711,7 +28711,7 @@
         <v>1.55</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT139" t="n">
         <v>1.31</v>
@@ -29523,7 +29523,7 @@
         <v>1.55</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT143" t="n">
         <v>1.54</v>
@@ -29729,7 +29729,7 @@
         <v>2.08</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU144" t="n">
         <v>1.85</v>
@@ -31147,10 +31147,10 @@
         <v>1.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU151" t="n">
         <v>1.63</v>
@@ -32365,10 +32365,10 @@
         <v>2.75</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT157" t="n">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU157" t="n">
         <v>1.61</v>
@@ -32420,6 +32420,412 @@
       </c>
       <c r="BK157" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5690860</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45042.5625</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2</v>
+      </c>
+      <c r="K158" t="n">
+        <v>3</v>
+      </c>
+      <c r="L158" t="n">
+        <v>3</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2</v>
+      </c>
+      <c r="N158" t="n">
+        <v>5</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['23', '62', '63']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['10', '39']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>4</v>
+      </c>
+      <c r="R158" t="n">
+        <v>7</v>
+      </c>
+      <c r="S158" t="n">
+        <v>11</v>
+      </c>
+      <c r="T158" t="n">
+        <v>0</v>
+      </c>
+      <c r="U158" t="n">
+        <v>0</v>
+      </c>
+      <c r="V158" t="n">
+        <v>0</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0</v>
+      </c>
+      <c r="X158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5690858</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45042.64583333334</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>7</v>
+      </c>
+      <c r="R159" t="n">
+        <v>5</v>
+      </c>
+      <c r="S159" t="n">
+        <v>12</v>
+      </c>
+      <c r="T159" t="n">
+        <v>0</v>
+      </c>
+      <c r="U159" t="n">
+        <v>0</v>
+      </c>
+      <c r="V159" t="n">
+        <v>0</v>
+      </c>
+      <c r="W159" t="n">
+        <v>0</v>
+      </c>
+      <c r="X159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK159"/>
+  <dimension ref="A1:BK160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT17" t="n">
         <v>1.21</v>
@@ -5369,7 +5369,7 @@
         <v>2.08</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU24" t="n">
         <v>1.88</v>
@@ -5975,7 +5975,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT27" t="n">
         <v>1.15</v>
@@ -7805,7 +7805,7 @@
         <v>1.15</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU36" t="n">
         <v>1.3</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT40" t="n">
         <v>1.31</v>
@@ -9429,7 +9429,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU44" t="n">
         <v>1.48</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT51" t="n">
         <v>1.54</v>
@@ -12068,7 +12068,7 @@
         <v>1.62</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU57" t="n">
         <v>0.96</v>
@@ -13283,7 +13283,7 @@
         <v>2.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT63" t="n">
         <v>2.64</v>
@@ -14704,7 +14704,7 @@
         <v>0.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT70" t="n">
         <v>0.85</v>
@@ -14910,7 +14910,7 @@
         <v>2.21</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU71" t="n">
         <v>1.76</v>
@@ -17346,7 +17346,7 @@
         <v>1.85</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU83" t="n">
         <v>1.4</v>
@@ -18561,7 +18561,7 @@
         <v>2</v>
       </c>
       <c r="AS89" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT89" t="n">
         <v>2</v>
@@ -19782,7 +19782,7 @@
         <v>1.62</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU95" t="n">
         <v>1.56</v>
@@ -21200,7 +21200,7 @@
         <v>1.71</v>
       </c>
       <c r="AS102" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT102" t="n">
         <v>1.69</v>
@@ -22015,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU106" t="n">
         <v>1.24</v>
@@ -23636,7 +23636,7 @@
         <v>1.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT114" t="n">
         <v>1.31</v>
@@ -24045,7 +24045,7 @@
         <v>0.92</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU116" t="n">
         <v>1.02</v>
@@ -26275,7 +26275,7 @@
         <v>0.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT127" t="n">
         <v>0.6899999999999999</v>
@@ -27090,7 +27090,7 @@
         <v>0.85</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU131" t="n">
         <v>1.13</v>
@@ -28102,7 +28102,7 @@
         <v>1.45</v>
       </c>
       <c r="AS136" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT136" t="n">
         <v>1.31</v>
@@ -28917,7 +28917,7 @@
         <v>1.15</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU140" t="n">
         <v>1.12</v>
@@ -30541,7 +30541,7 @@
         <v>1.62</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU148" t="n">
         <v>0.9399999999999999</v>
@@ -31553,7 +31553,7 @@
         <v>0.67</v>
       </c>
       <c r="AS153" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT153" t="n">
         <v>0.6899999999999999</v>
@@ -32475,7 +32475,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>['23', '62', '63']</t>
+          <t>['23', '61', '63']</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
@@ -32613,16 +32613,16 @@
         <v>4</v>
       </c>
       <c r="BH158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI158" t="n">
         <v>7</v>
       </c>
-      <c r="BI158" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ158" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK158" t="n">
         <v>11</v>
-      </c>
-      <c r="BK158" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="159">
@@ -32826,6 +32826,209 @@
       </c>
       <c r="BK159" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5690855</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45044.60416666666</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>2</v>
+      </c>
+      <c r="N160" t="n">
+        <v>2</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['28', '83']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>9</v>
+      </c>
+      <c r="R160" t="n">
+        <v>3</v>
+      </c>
+      <c r="S160" t="n">
+        <v>12</v>
+      </c>
+      <c r="T160" t="n">
+        <v>0</v>
+      </c>
+      <c r="U160" t="n">
+        <v>0</v>
+      </c>
+      <c r="V160" t="n">
+        <v>0</v>
+      </c>
+      <c r="W160" t="n">
+        <v>0</v>
+      </c>
+      <c r="X160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK160"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT18" t="n">
         <v>1.54</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU19" t="n">
         <v>1.93</v>
@@ -5572,7 +5572,7 @@
         <v>1.62</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU25" t="n">
         <v>1.02</v>
@@ -5978,7 +5978,7 @@
         <v>0.93</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU27" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT29" t="n">
         <v>1.31</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT36" t="n">
         <v>1.64</v>
@@ -8211,7 +8211,7 @@
         <v>1.62</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU38" t="n">
         <v>1.63</v>
@@ -8414,7 +8414,7 @@
         <v>2.21</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU39" t="n">
         <v>1.21</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT43" t="n">
         <v>0.6899999999999999</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT45" t="n">
         <v>2.64</v>
@@ -10647,7 +10647,7 @@
         <v>0.62</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU50" t="n">
         <v>1.09</v>
@@ -11256,7 +11256,7 @@
         <v>2.21</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU53" t="n">
         <v>1.62</v>
@@ -11659,7 +11659,7 @@
         <v>1.75</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT55" t="n">
         <v>1.31</v>
@@ -12471,7 +12471,7 @@
         <v>0.25</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT59" t="n">
         <v>0.6899999999999999</v>
@@ -12880,7 +12880,7 @@
         <v>1.85</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU61" t="n">
         <v>1.43</v>
@@ -13083,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU62" t="n">
         <v>1.27</v>
@@ -14095,10 +14095,10 @@
         <v>0.83</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU67" t="n">
         <v>1.17</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT68" t="n">
         <v>1.31</v>
@@ -14707,7 +14707,7 @@
         <v>0.93</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU70" t="n">
         <v>1.11</v>
@@ -16534,7 +16534,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU79" t="n">
         <v>1.69</v>
@@ -16737,7 +16737,7 @@
         <v>2.08</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU80" t="n">
         <v>1.87</v>
@@ -17955,7 +17955,7 @@
         <v>0.92</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU86" t="n">
         <v>0.93</v>
@@ -18358,7 +18358,7 @@
         <v>1.86</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT88" t="n">
         <v>1.54</v>
@@ -18764,7 +18764,7 @@
         <v>1.57</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT90" t="n">
         <v>1.21</v>
@@ -19576,7 +19576,7 @@
         <v>0.63</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT94" t="n">
         <v>0.6899999999999999</v>
@@ -20594,7 +20594,7 @@
         <v>2.08</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU99" t="n">
         <v>1.86</v>
@@ -20997,10 +20997,10 @@
         <v>0.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU101" t="n">
         <v>1.07</v>
@@ -21809,7 +21809,7 @@
         <v>1.88</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT105" t="n">
         <v>1.69</v>
@@ -22418,7 +22418,7 @@
         <v>2.63</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT108" t="n">
         <v>2.64</v>
@@ -22827,7 +22827,7 @@
         <v>1.85</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU110" t="n">
         <v>1.4</v>
@@ -23030,7 +23030,7 @@
         <v>1.62</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU111" t="n">
         <v>1.46</v>
@@ -24448,7 +24448,7 @@
         <v>1.33</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT118" t="n">
         <v>1.21</v>
@@ -24854,7 +24854,7 @@
         <v>1.78</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT120" t="n">
         <v>1.69</v>
@@ -25466,7 +25466,7 @@
         <v>0.62</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU123" t="n">
         <v>1.11</v>
@@ -25872,7 +25872,7 @@
         <v>1</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU125" t="n">
         <v>1.24</v>
@@ -26478,7 +26478,7 @@
         <v>2</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT128" t="n">
         <v>2</v>
@@ -27087,7 +27087,7 @@
         <v>1.6</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT131" t="n">
         <v>1.64</v>
@@ -27699,7 +27699,7 @@
         <v>0.92</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU134" t="n">
         <v>1.04</v>
@@ -28914,7 +28914,7 @@
         <v>1.55</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT140" t="n">
         <v>1.64</v>
@@ -29117,10 +29117,10 @@
         <v>0.64</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU141" t="n">
         <v>1.16</v>
@@ -30132,7 +30132,7 @@
         <v>1.33</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT146" t="n">
         <v>1.31</v>
@@ -31353,7 +31353,7 @@
         <v>0.62</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU152" t="n">
         <v>1.12</v>
@@ -31756,10 +31756,10 @@
         <v>1</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU154" t="n">
         <v>1.18</v>
@@ -33029,6 +33029,412 @@
       </c>
       <c r="BK160" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5690856</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45045.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>3</v>
+      </c>
+      <c r="K161" t="n">
+        <v>4</v>
+      </c>
+      <c r="L161" t="n">
+        <v>4</v>
+      </c>
+      <c r="M161" t="n">
+        <v>4</v>
+      </c>
+      <c r="N161" t="n">
+        <v>8</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['20', '49', '57', '74']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['6', '36', '41', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>9</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2</v>
+      </c>
+      <c r="S161" t="n">
+        <v>11</v>
+      </c>
+      <c r="T161" t="n">
+        <v>0</v>
+      </c>
+      <c r="U161" t="n">
+        <v>0</v>
+      </c>
+      <c r="V161" t="n">
+        <v>0</v>
+      </c>
+      <c r="W161" t="n">
+        <v>0</v>
+      </c>
+      <c r="X161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5690857</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45045.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>5</v>
+      </c>
+      <c r="R162" t="n">
+        <v>4</v>
+      </c>
+      <c r="S162" t="n">
+        <v>9</v>
+      </c>
+      <c r="T162" t="n">
+        <v>0</v>
+      </c>
+      <c r="U162" t="n">
+        <v>0</v>
+      </c>
+      <c r="V162" t="n">
+        <v>0</v>
+      </c>
+      <c r="W162" t="n">
+        <v>0</v>
+      </c>
+      <c r="X162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.14</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU18" t="n">
         <v>1.93</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT23" t="n">
         <v>1.31</v>
@@ -5775,7 +5775,7 @@
         <v>2.08</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU26" t="n">
         <v>1.53</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT33" t="n">
         <v>0.6899999999999999</v>
@@ -8820,7 +8820,7 @@
         <v>0.62</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU41" t="n">
         <v>1.13</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT42" t="n">
         <v>0.6899999999999999</v>
@@ -10441,7 +10441,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT49" t="n">
         <v>1.31</v>
@@ -10850,7 +10850,7 @@
         <v>0.93</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU51" t="n">
         <v>1.12</v>
@@ -12271,7 +12271,7 @@
         <v>0.92</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU58" t="n">
         <v>0.95</v>
@@ -12877,7 +12877,7 @@
         <v>0.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT61" t="n">
         <v>0.86</v>
@@ -15519,7 +15519,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU74" t="n">
         <v>1.67</v>
@@ -16328,7 +16328,7 @@
         <v>1.67</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT78" t="n">
         <v>1.21</v>
@@ -17343,7 +17343,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT83" t="n">
         <v>1.64</v>
@@ -18361,7 +18361,7 @@
         <v>0.86</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU88" t="n">
         <v>1.09</v>
@@ -20185,7 +20185,7 @@
         <v>1.86</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT97" t="n">
         <v>2</v>
@@ -21406,7 +21406,7 @@
         <v>1.62</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU103" t="n">
         <v>1.56</v>
@@ -22824,7 +22824,7 @@
         <v>0.67</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT110" t="n">
         <v>1.14</v>
@@ -23233,7 +23233,7 @@
         <v>2.21</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU112" t="n">
         <v>1.69</v>
@@ -25260,7 +25260,7 @@
         <v>2.7</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT122" t="n">
         <v>2.64</v>
@@ -26887,7 +26887,7 @@
         <v>1.62</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU130" t="n">
         <v>0.92</v>
@@ -29526,7 +29526,7 @@
         <v>1.5</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU143" t="n">
         <v>1.63</v>
@@ -29929,7 +29929,7 @@
         <v>2.09</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT145" t="n">
         <v>2</v>
@@ -31959,7 +31959,7 @@
         <v>1.42</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT155" t="n">
         <v>1.31</v>
@@ -32165,7 +32165,7 @@
         <v>1.62</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU156" t="n">
         <v>1.39</v>
@@ -33428,13 +33428,216 @@
         <v>4</v>
       </c>
       <c r="BI162" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ162" t="n">
         <v>10</v>
       </c>
       <c r="BK162" t="n">
-        <v>11</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5690859</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45046.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>4</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>4</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['51', '71', '77', '86']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>7</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2</v>
+      </c>
+      <c r="S163" t="n">
+        <v>9</v>
+      </c>
+      <c r="T163" t="n">
+        <v>0</v>
+      </c>
+      <c r="U163" t="n">
+        <v>0</v>
+      </c>
+      <c r="V163" t="n">
+        <v>0</v>
+      </c>
+      <c r="W163" t="n">
+        <v>0</v>
+      </c>
+      <c r="X163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK163"/>
+  <dimension ref="A1:BK164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT4" t="n">
         <v>2</v>
@@ -1715,7 +1715,7 @@
         <v>0.92</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT15" t="n">
         <v>1.69</v>
@@ -4963,7 +4963,7 @@
         <v>2.21</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU22" t="n">
         <v>0.95</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT30" t="n">
         <v>1.21</v>
@@ -7196,7 +7196,7 @@
         <v>1.93</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU33" t="n">
         <v>1.07</v>
@@ -8817,7 +8817,7 @@
         <v>0.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT41" t="n">
         <v>1.43</v>
@@ -9226,7 +9226,7 @@
         <v>1.14</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU43" t="n">
         <v>1.21</v>
@@ -10644,7 +10644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT50" t="n">
         <v>0.86</v>
@@ -12474,7 +12474,7 @@
         <v>0.86</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU59" t="n">
         <v>1.08</v>
@@ -13486,7 +13486,7 @@
         <v>0.2</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT64" t="n">
         <v>0.6899999999999999</v>
@@ -15922,10 +15922,10 @@
         <v>0.8</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU76" t="n">
         <v>1.14</v>
@@ -17549,7 +17549,7 @@
         <v>1.62</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU84" t="n">
         <v>1.44</v>
@@ -18155,7 +18155,7 @@
         <v>2.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT87" t="n">
         <v>2.64</v>
@@ -19376,7 +19376,7 @@
         <v>1.62</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU93" t="n">
         <v>0.97</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT100" t="n">
         <v>1.31</v>
@@ -22624,7 +22624,7 @@
         <v>1.5</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU109" t="n">
         <v>1.71</v>
@@ -23433,7 +23433,7 @@
         <v>1.56</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT113" t="n">
         <v>1.31</v>
@@ -24654,7 +24654,7 @@
         <v>1</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU119" t="n">
         <v>1.29</v>
@@ -25463,7 +25463,7 @@
         <v>0.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT123" t="n">
         <v>1.14</v>
@@ -27496,7 +27496,7 @@
         <v>2.08</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU133" t="n">
         <v>1.82</v>
@@ -27899,7 +27899,7 @@
         <v>0.73</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT135" t="n">
         <v>0.6899999999999999</v>
@@ -29323,7 +29323,7 @@
         <v>1.62</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU142" t="n">
         <v>0.97</v>
@@ -30338,7 +30338,7 @@
         <v>0.92</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU147" t="n">
         <v>1.04</v>
@@ -31350,7 +31350,7 @@
         <v>0.83</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT152" t="n">
         <v>0.86</v>
@@ -33638,6 +33638,209 @@
       </c>
       <c r="BK163" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5690861</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45051.60416666666</v>
+      </c>
+      <c r="F164" t="n">
+        <v>6</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>2</v>
+      </c>
+      <c r="R164" t="n">
+        <v>2</v>
+      </c>
+      <c r="S164" t="n">
+        <v>4</v>
+      </c>
+      <c r="T164" t="n">
+        <v>0</v>
+      </c>
+      <c r="U164" t="n">
+        <v>0</v>
+      </c>
+      <c r="V164" t="n">
+        <v>0</v>
+      </c>
+      <c r="W164" t="n">
+        <v>0</v>
+      </c>
+      <c r="X164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK164"/>
+  <dimension ref="A1:BK168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>0.64</v>
       </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT6" t="n">
         <v>0.71</v>
@@ -1918,7 +1918,7 @@
         <v>1.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0.86</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU14" t="n">
         <v>1.08</v>
@@ -3542,7 +3542,7 @@
         <v>0.64</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU15" t="n">
         <v>1.02</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT16" t="n">
         <v>2.64</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU20" t="n">
         <v>1.7</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU21" t="n">
         <v>1.14</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT25" t="n">
         <v>0.86</v>
@@ -6181,7 +6181,7 @@
         <v>2.21</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU28" t="n">
         <v>1.12</v>
@@ -6384,7 +6384,7 @@
         <v>0.86</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU29" t="n">
         <v>0.83</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT31" t="n">
         <v>2.64</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU32" t="n">
         <v>0.9399999999999999</v>
@@ -7399,7 +7399,7 @@
         <v>1.5</v>
       </c>
       <c r="AT34" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU34" t="n">
         <v>1.71</v>
@@ -8008,7 +8008,7 @@
         <v>2.08</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU37" t="n">
         <v>1.83</v>
@@ -8208,7 +8208,7 @@
         <v>1.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT38" t="n">
         <v>1.14</v>
@@ -9023,7 +9023,7 @@
         <v>1.93</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU42" t="n">
         <v>1.38</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT46" t="n">
         <v>1.21</v>
@@ -10035,10 +10035,10 @@
         <v>2.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU47" t="n">
         <v>0.84</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU48" t="n">
         <v>1.4</v>
@@ -10444,7 +10444,7 @@
         <v>1.93</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU49" t="n">
         <v>1.4</v>
@@ -11050,10 +11050,10 @@
         <v>0.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU52" t="n">
         <v>1.63</v>
@@ -11865,7 +11865,7 @@
         <v>2.08</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU56" t="n">
         <v>1.95</v>
@@ -12065,7 +12065,7 @@
         <v>1.75</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT57" t="n">
         <v>1.64</v>
@@ -12268,7 +12268,7 @@
         <v>1.4</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT58" t="n">
         <v>1.43</v>
@@ -12674,10 +12674,10 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT60" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU60" t="n">
         <v>1.64</v>
@@ -13489,7 +13489,7 @@
         <v>0.64</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU64" t="n">
         <v>1.17</v>
@@ -13692,7 +13692,7 @@
         <v>2.21</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU65" t="n">
         <v>1.69</v>
@@ -14504,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU69" t="n">
         <v>1.26</v>
@@ -15110,7 +15110,7 @@
         <v>2.4</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT72" t="n">
         <v>2.64</v>
@@ -15316,7 +15316,7 @@
         <v>2.08</v>
       </c>
       <c r="AT73" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU73" t="n">
         <v>2.01</v>
@@ -15719,10 +15719,10 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU75" t="n">
         <v>0.9399999999999999</v>
@@ -16125,10 +16125,10 @@
         <v>0.67</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU77" t="n">
         <v>0.9399999999999999</v>
@@ -16937,7 +16937,7 @@
         <v>1.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT81" t="n">
         <v>1.31</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU82" t="n">
         <v>1.31</v>
@@ -17546,7 +17546,7 @@
         <v>1.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT84" t="n">
         <v>0.71</v>
@@ -17752,7 +17752,7 @@
         <v>2.21</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU85" t="n">
         <v>1.7</v>
@@ -17952,7 +17952,7 @@
         <v>0.71</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT86" t="n">
         <v>1.14</v>
@@ -18564,7 +18564,7 @@
         <v>0.93</v>
       </c>
       <c r="AT89" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU89" t="n">
         <v>1.15</v>
@@ -18970,7 +18970,7 @@
         <v>1.5</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU91" t="n">
         <v>1.74</v>
@@ -19170,7 +19170,7 @@
         <v>1.57</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT92" t="n">
         <v>1.31</v>
@@ -19373,7 +19373,7 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT93" t="n">
         <v>0.71</v>
@@ -19579,7 +19579,7 @@
         <v>1.14</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU94" t="n">
         <v>1.21</v>
@@ -19779,7 +19779,7 @@
         <v>1.43</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT95" t="n">
         <v>1.64</v>
@@ -20188,7 +20188,7 @@
         <v>1.93</v>
       </c>
       <c r="AT97" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU97" t="n">
         <v>1.38</v>
@@ -20797,7 +20797,7 @@
         <v>0.64</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU100" t="n">
         <v>1.17</v>
@@ -21203,7 +21203,7 @@
         <v>0.93</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU102" t="n">
         <v>1.13</v>
@@ -21403,7 +21403,7 @@
         <v>1.75</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT103" t="n">
         <v>1.43</v>
@@ -21606,10 +21606,10 @@
         <v>1.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT104" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU104" t="n">
         <v>0.99</v>
@@ -21812,7 +21812,7 @@
         <v>0.86</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU105" t="n">
         <v>1.11</v>
@@ -22215,7 +22215,7 @@
         <v>1.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT107" t="n">
         <v>1.21</v>
@@ -23027,7 +23027,7 @@
         <v>0.78</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT111" t="n">
         <v>0.86</v>
@@ -23639,7 +23639,7 @@
         <v>0.93</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU114" t="n">
         <v>1.09</v>
@@ -23842,7 +23842,7 @@
         <v>2.08</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU115" t="n">
         <v>1.85</v>
@@ -24042,7 +24042,7 @@
         <v>1.78</v>
       </c>
       <c r="AS116" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT116" t="n">
         <v>1.64</v>
@@ -24245,10 +24245,10 @@
         <v>1.89</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT117" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU117" t="n">
         <v>0.91</v>
@@ -24857,7 +24857,7 @@
         <v>1.14</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU120" t="n">
         <v>1.18</v>
@@ -26075,7 +26075,7 @@
         <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU126" t="n">
         <v>1.62</v>
@@ -26278,7 +26278,7 @@
         <v>0.93</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU127" t="n">
         <v>1.04</v>
@@ -26481,7 +26481,7 @@
         <v>1.14</v>
       </c>
       <c r="AT128" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU128" t="n">
         <v>1.12</v>
@@ -26681,10 +26681,10 @@
         <v>1.9</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU129" t="n">
         <v>1.03</v>
@@ -26884,7 +26884,7 @@
         <v>1.7</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT130" t="n">
         <v>1.43</v>
@@ -27290,7 +27290,7 @@
         <v>1.7</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT132" t="n">
         <v>1.31</v>
@@ -27696,7 +27696,7 @@
         <v>0.82</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT134" t="n">
         <v>1.14</v>
@@ -27902,7 +27902,7 @@
         <v>0.64</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU135" t="n">
         <v>1.12</v>
@@ -28105,7 +28105,7 @@
         <v>0.93</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU136" t="n">
         <v>1.02</v>
@@ -28305,10 +28305,10 @@
         <v>1.82</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU137" t="n">
         <v>1.41</v>
@@ -29320,7 +29320,7 @@
         <v>0.73</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT142" t="n">
         <v>0.71</v>
@@ -29932,7 +29932,7 @@
         <v>1.93</v>
       </c>
       <c r="AT145" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU145" t="n">
         <v>1.37</v>
@@ -30135,7 +30135,7 @@
         <v>0.86</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU146" t="n">
         <v>1.16</v>
@@ -30335,7 +30335,7 @@
         <v>0.67</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT147" t="n">
         <v>0.71</v>
@@ -30538,7 +30538,7 @@
         <v>1.42</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT148" t="n">
         <v>1.64</v>
@@ -30744,7 +30744,7 @@
         <v>2.08</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU149" t="n">
         <v>1.8</v>
@@ -30947,7 +30947,7 @@
         <v>1</v>
       </c>
       <c r="AT150" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU150" t="n">
         <v>1.2</v>
@@ -31556,7 +31556,7 @@
         <v>0.93</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU153" t="n">
         <v>1</v>
@@ -32162,7 +32162,7 @@
         <v>1.42</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT156" t="n">
         <v>1.43</v>
@@ -33702,13 +33702,13 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S164" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T164" t="n">
         <v>0</v>
@@ -33825,22 +33825,834 @@
         <v>0</v>
       </c>
       <c r="BF164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG164" t="n">
         <v>3</v>
       </c>
-      <c r="BG164" t="n">
-        <v>2</v>
-      </c>
       <c r="BH164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5690862</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45052.5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>4</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>4</v>
+      </c>
+      <c r="L165" t="n">
+        <v>5</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>5</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['6', '9', '34', '39', '65']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>7</v>
+      </c>
+      <c r="R165" t="n">
         <v>3</v>
       </c>
-      <c r="BI164" t="n">
+      <c r="S165" t="n">
+        <v>10</v>
+      </c>
+      <c r="T165" t="n">
+        <v>0</v>
+      </c>
+      <c r="U165" t="n">
+        <v>0</v>
+      </c>
+      <c r="V165" t="n">
+        <v>0</v>
+      </c>
+      <c r="W165" t="n">
+        <v>0</v>
+      </c>
+      <c r="X165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK165" t="n">
         <v>3</v>
       </c>
-      <c r="BJ164" t="n">
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5690863</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45052.5</v>
+      </c>
+      <c r="F166" t="n">
         <v>6</v>
       </c>
-      <c r="BK164" t="n">
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>2</v>
+      </c>
+      <c r="M166" t="n">
+        <v>2</v>
+      </c>
+      <c r="N166" t="n">
+        <v>4</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['42', '73']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['50', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>7</v>
+      </c>
+      <c r="R166" t="n">
         <v>5</v>
+      </c>
+      <c r="S166" t="n">
+        <v>12</v>
+      </c>
+      <c r="T166" t="n">
+        <v>0</v>
+      </c>
+      <c r="U166" t="n">
+        <v>0</v>
+      </c>
+      <c r="V166" t="n">
+        <v>0</v>
+      </c>
+      <c r="W166" t="n">
+        <v>0</v>
+      </c>
+      <c r="X166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5690865</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45053.39583333334</v>
+      </c>
+      <c r="F167" t="n">
+        <v>6</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>2</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>1</v>
+      </c>
+      <c r="R167" t="n">
+        <v>5</v>
+      </c>
+      <c r="S167" t="n">
+        <v>6</v>
+      </c>
+      <c r="T167" t="n">
+        <v>0</v>
+      </c>
+      <c r="U167" t="n">
+        <v>0</v>
+      </c>
+      <c r="V167" t="n">
+        <v>0</v>
+      </c>
+      <c r="W167" t="n">
+        <v>0</v>
+      </c>
+      <c r="X167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5690864</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45053.39583333334</v>
+      </c>
+      <c r="F168" t="n">
+        <v>6</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>2</v>
+      </c>
+      <c r="N168" t="n">
+        <v>3</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['21', '42']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>3</v>
+      </c>
+      <c r="R168" t="n">
+        <v>3</v>
+      </c>
+      <c r="S168" t="n">
+        <v>6</v>
+      </c>
+      <c r="T168" t="n">
+        <v>0</v>
+      </c>
+      <c r="U168" t="n">
+        <v>0</v>
+      </c>
+      <c r="V168" t="n">
+        <v>0</v>
+      </c>
+      <c r="W168" t="n">
+        <v>0</v>
+      </c>
+      <c r="X168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK168"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT2" t="n">
         <v>1.21</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.93</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU23" t="n">
         <v>1.02</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT24" t="n">
         <v>1.64</v>
@@ -5772,7 +5772,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT26" t="n">
         <v>1.43</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT37" t="n">
         <v>1.21</v>
@@ -8617,7 +8617,7 @@
         <v>0.93</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU40" t="n">
         <v>1.19</v>
@@ -11456,10 +11456,10 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU54" t="n">
         <v>1.87</v>
@@ -11662,7 +11662,7 @@
         <v>1.14</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU55" t="n">
         <v>1.25</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT56" t="n">
         <v>1.64</v>
@@ -14301,7 +14301,7 @@
         <v>0.86</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU68" t="n">
         <v>1.16</v>
@@ -15313,7 +15313,7 @@
         <v>2.2</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT73" t="n">
         <v>2.07</v>
@@ -16734,7 +16734,7 @@
         <v>0.57</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT80" t="n">
         <v>0.86</v>
@@ -16940,7 +16940,7 @@
         <v>1.57</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU81" t="n">
         <v>1</v>
@@ -19173,7 +19173,7 @@
         <v>1.07</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU92" t="n">
         <v>1</v>
@@ -20391,7 +20391,7 @@
         <v>2.21</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU98" t="n">
         <v>1.77</v>
@@ -20591,7 +20591,7 @@
         <v>0.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT99" t="n">
         <v>1.14</v>
@@ -23436,7 +23436,7 @@
         <v>0.64</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU113" t="n">
         <v>1.14</v>
@@ -23839,7 +23839,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT115" t="n">
         <v>0.71</v>
@@ -27293,7 +27293,7 @@
         <v>1.5</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU132" t="n">
         <v>1.41</v>
@@ -27493,7 +27493,7 @@
         <v>0.7</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT133" t="n">
         <v>0.71</v>
@@ -28714,7 +28714,7 @@
         <v>2.21</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU139" t="n">
         <v>1.62</v>
@@ -29726,7 +29726,7 @@
         <v>1.36</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT144" t="n">
         <v>1.21</v>
@@ -30741,7 +30741,7 @@
         <v>1.75</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT149" t="n">
         <v>1.64</v>
@@ -31962,7 +31962,7 @@
         <v>1.93</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU155" t="n">
         <v>1.35</v>
@@ -34314,10 +34314,10 @@
         <v>1</v>
       </c>
       <c r="R167" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S167" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T167" t="n">
         <v>0</v>
@@ -34437,19 +34437,19 @@
         <v>2</v>
       </c>
       <c r="BG167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH167" t="n">
         <v>2</v>
       </c>
       <c r="BI167" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ167" t="n">
         <v>4</v>
       </c>
       <c r="BK167" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
@@ -34517,10 +34517,10 @@
         <v>3</v>
       </c>
       <c r="R168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S168" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T168" t="n">
         <v>0</v>
@@ -34640,19 +34640,222 @@
         <v>2</v>
       </c>
       <c r="BG168" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BH168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI168" t="n">
         <v>6</v>
       </c>
       <c r="BJ168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5690866</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45053.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>6</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>2</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="n">
+        <v>3</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['18', '62']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>7</v>
+      </c>
+      <c r="R169" t="n">
         <v>4</v>
       </c>
-      <c r="BK168" t="n">
-        <v>17</v>
+      <c r="S169" t="n">
+        <v>11</v>
+      </c>
+      <c r="T169" t="n">
+        <v>0</v>
+      </c>
+      <c r="U169" t="n">
+        <v>0</v>
+      </c>
+      <c r="V169" t="n">
+        <v>0</v>
+      </c>
+      <c r="W169" t="n">
+        <v>0</v>
+      </c>
+      <c r="X169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT13" t="n">
         <v>0.86</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT18" t="n">
         <v>1.43</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU21" t="n">
         <v>1.14</v>
@@ -6993,7 +6993,7 @@
         <v>1.07</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU32" t="n">
         <v>0.9399999999999999</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT36" t="n">
         <v>1.64</v>
@@ -9023,7 +9023,7 @@
         <v>1.93</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU42" t="n">
         <v>1.38</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT43" t="n">
         <v>0.71</v>
@@ -11053,7 +11053,7 @@
         <v>1.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU52" t="n">
         <v>1.63</v>
@@ -11659,7 +11659,7 @@
         <v>1.75</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT55" t="n">
         <v>1.21</v>
@@ -13489,7 +13489,7 @@
         <v>0.64</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU64" t="n">
         <v>1.17</v>
@@ -14095,7 +14095,7 @@
         <v>0.83</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT67" t="n">
         <v>1.14</v>
@@ -16128,7 +16128,7 @@
         <v>1.57</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU77" t="n">
         <v>0.9399999999999999</v>
@@ -17752,7 +17752,7 @@
         <v>2.21</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU85" t="n">
         <v>1.7</v>
@@ -18764,7 +18764,7 @@
         <v>1.57</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT90" t="n">
         <v>1.21</v>
@@ -19576,10 +19576,10 @@
         <v>0.63</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU94" t="n">
         <v>1.21</v>
@@ -22418,7 +22418,7 @@
         <v>2.63</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT108" t="n">
         <v>2.64</v>
@@ -23842,7 +23842,7 @@
         <v>2.14</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU115" t="n">
         <v>1.85</v>
@@ -24854,7 +24854,7 @@
         <v>1.78</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT120" t="n">
         <v>1.64</v>
@@ -26278,7 +26278,7 @@
         <v>0.93</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU127" t="n">
         <v>1.04</v>
@@ -26478,7 +26478,7 @@
         <v>2</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT128" t="n">
         <v>2.07</v>
@@ -27902,7 +27902,7 @@
         <v>0.64</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU135" t="n">
         <v>1.12</v>
@@ -28914,7 +28914,7 @@
         <v>1.55</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT140" t="n">
         <v>1.64</v>
@@ -31556,7 +31556,7 @@
         <v>0.93</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU153" t="n">
         <v>1</v>
@@ -31756,7 +31756,7 @@
         <v>1</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT154" t="n">
         <v>1.14</v>
@@ -33380,7 +33380,7 @@
         <v>0.85</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT162" t="n">
         <v>0.86</v>
@@ -34195,7 +34195,7 @@
         <v>1.57</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU166" t="n">
         <v>0.97</v>
@@ -34856,6 +34856,209 @@
       </c>
       <c r="BK169" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5690867</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45058.60416666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>7</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="n">
+        <v>2</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>2</v>
+      </c>
+      <c r="R170" t="n">
+        <v>2</v>
+      </c>
+      <c r="S170" t="n">
+        <v>4</v>
+      </c>
+      <c r="T170" t="n">
+        <v>0</v>
+      </c>
+      <c r="U170" t="n">
+        <v>0</v>
+      </c>
+      <c r="V170" t="n">
+        <v>0</v>
+      </c>
+      <c r="W170" t="n">
+        <v>0</v>
+      </c>
+      <c r="X170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK170"/>
+  <dimension ref="A1:BK175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT4" t="n">
         <v>2.07</v>
@@ -2121,7 +2121,7 @@
         <v>0.86</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT9" t="n">
         <v>1.64</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT11" t="n">
         <v>1.64</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.13</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT15" t="n">
         <v>1.64</v>
@@ -3745,7 +3745,7 @@
         <v>1.07</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU16" t="n">
         <v>1.21</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT17" t="n">
         <v>1.21</v>
@@ -4151,7 +4151,7 @@
         <v>1.13</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU18" t="n">
         <v>1.93</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU19" t="n">
         <v>1.93</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT20" t="n">
         <v>1.21</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT22" t="n">
         <v>0.71</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU23" t="n">
         <v>1.02</v>
@@ -5572,7 +5572,7 @@
         <v>1.57</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.02</v>
@@ -5775,7 +5775,7 @@
         <v>2.14</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU26" t="n">
         <v>1.53</v>
@@ -5975,10 +5975,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU27" t="n">
         <v>1</v>
@@ -6178,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT28" t="n">
         <v>1.64</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT30" t="n">
         <v>1.21</v>
@@ -6790,7 +6790,7 @@
         <v>1.57</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU31" t="n">
         <v>0.9</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT33" t="n">
         <v>0.71</v>
@@ -8208,10 +8208,10 @@
         <v>1.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU38" t="n">
         <v>1.63</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.21</v>
@@ -8614,10 +8614,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU40" t="n">
         <v>1.19</v>
@@ -8817,10 +8817,10 @@
         <v>0.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU41" t="n">
         <v>1.13</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT42" t="n">
         <v>0.73</v>
@@ -9632,7 +9632,7 @@
         <v>0.86</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU45" t="n">
         <v>1.09</v>
@@ -10441,7 +10441,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT49" t="n">
         <v>1.21</v>
@@ -10644,10 +10644,10 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.09</v>
@@ -10847,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU51" t="n">
         <v>1.12</v>
@@ -11050,7 +11050,7 @@
         <v>0.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT52" t="n">
         <v>0.73</v>
@@ -11253,10 +11253,10 @@
         <v>1.25</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU53" t="n">
         <v>1.62</v>
@@ -11459,7 +11459,7 @@
         <v>2.14</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU54" t="n">
         <v>1.87</v>
@@ -11662,7 +11662,7 @@
         <v>1.13</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU55" t="n">
         <v>1.25</v>
@@ -12271,7 +12271,7 @@
         <v>1.07</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU58" t="n">
         <v>0.95</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT60" t="n">
         <v>2.07</v>
@@ -12877,10 +12877,10 @@
         <v>0.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU61" t="n">
         <v>1.43</v>
@@ -13083,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU62" t="n">
         <v>1.27</v>
@@ -13283,10 +13283,10 @@
         <v>2.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU63" t="n">
         <v>1.1</v>
@@ -13486,7 +13486,7 @@
         <v>0.2</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT64" t="n">
         <v>0.73</v>
@@ -13689,7 +13689,7 @@
         <v>1.2</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT65" t="n">
         <v>1.21</v>
@@ -14098,7 +14098,7 @@
         <v>1.13</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU67" t="n">
         <v>1.17</v>
@@ -14301,7 +14301,7 @@
         <v>0.86</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU68" t="n">
         <v>1.16</v>
@@ -14704,10 +14704,10 @@
         <v>0.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU70" t="n">
         <v>1.11</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT71" t="n">
         <v>1.64</v>
@@ -15110,10 +15110,10 @@
         <v>2.4</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU72" t="n">
         <v>1.58</v>
@@ -15519,7 +15519,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU74" t="n">
         <v>1.67</v>
@@ -15922,7 +15922,7 @@
         <v>0.8</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT76" t="n">
         <v>0.71</v>
@@ -16328,7 +16328,7 @@
         <v>1.67</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT78" t="n">
         <v>1.21</v>
@@ -16534,7 +16534,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU79" t="n">
         <v>1.69</v>
@@ -16737,7 +16737,7 @@
         <v>2.14</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU80" t="n">
         <v>1.87</v>
@@ -16940,7 +16940,7 @@
         <v>1.57</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU81" t="n">
         <v>1</v>
@@ -17343,7 +17343,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT83" t="n">
         <v>1.64</v>
@@ -17546,7 +17546,7 @@
         <v>1.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT84" t="n">
         <v>0.71</v>
@@ -17749,7 +17749,7 @@
         <v>0.71</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT85" t="n">
         <v>0.73</v>
@@ -17955,7 +17955,7 @@
         <v>1.07</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU86" t="n">
         <v>0.93</v>
@@ -18155,10 +18155,10 @@
         <v>2.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU87" t="n">
         <v>1.15</v>
@@ -18361,7 +18361,7 @@
         <v>0.86</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU88" t="n">
         <v>1.09</v>
@@ -18561,7 +18561,7 @@
         <v>2</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT89" t="n">
         <v>2.07</v>
@@ -19173,7 +19173,7 @@
         <v>1.07</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU92" t="n">
         <v>1</v>
@@ -19779,7 +19779,7 @@
         <v>1.43</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT95" t="n">
         <v>1.64</v>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU96" t="n">
         <v>1.27</v>
@@ -20185,7 +20185,7 @@
         <v>1.86</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT97" t="n">
         <v>2.07</v>
@@ -20388,10 +20388,10 @@
         <v>1.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU98" t="n">
         <v>1.77</v>
@@ -20594,7 +20594,7 @@
         <v>2.14</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU99" t="n">
         <v>1.86</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT100" t="n">
         <v>1.21</v>
@@ -21000,7 +21000,7 @@
         <v>0.86</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU101" t="n">
         <v>1.07</v>
@@ -21200,7 +21200,7 @@
         <v>1.71</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT102" t="n">
         <v>1.64</v>
@@ -21403,10 +21403,10 @@
         <v>1.75</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU103" t="n">
         <v>1.56</v>
@@ -22421,7 +22421,7 @@
         <v>1.13</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU108" t="n">
         <v>1.22</v>
@@ -22824,10 +22824,10 @@
         <v>0.67</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU110" t="n">
         <v>1.4</v>
@@ -23027,10 +23027,10 @@
         <v>0.78</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.46</v>
@@ -23230,10 +23230,10 @@
         <v>1.56</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU112" t="n">
         <v>1.69</v>
@@ -23433,10 +23433,10 @@
         <v>1.56</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU113" t="n">
         <v>1.14</v>
@@ -23636,7 +23636,7 @@
         <v>1.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT114" t="n">
         <v>1.21</v>
@@ -25060,7 +25060,7 @@
         <v>1.5</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU121" t="n">
         <v>1.63</v>
@@ -25260,10 +25260,10 @@
         <v>2.7</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU122" t="n">
         <v>1.39</v>
@@ -25463,10 +25463,10 @@
         <v>0.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU123" t="n">
         <v>1.11</v>
@@ -25666,7 +25666,7 @@
         <v>1.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT124" t="n">
         <v>1.21</v>
@@ -25872,7 +25872,7 @@
         <v>1</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.24</v>
@@ -26275,7 +26275,7 @@
         <v>0.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT127" t="n">
         <v>0.73</v>
@@ -26887,7 +26887,7 @@
         <v>1.57</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU130" t="n">
         <v>0.92</v>
@@ -27290,10 +27290,10 @@
         <v>1.7</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU132" t="n">
         <v>1.41</v>
@@ -27699,7 +27699,7 @@
         <v>1.07</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU134" t="n">
         <v>1.04</v>
@@ -27899,7 +27899,7 @@
         <v>0.73</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT135" t="n">
         <v>0.73</v>
@@ -28102,7 +28102,7 @@
         <v>1.45</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT136" t="n">
         <v>1.21</v>
@@ -28305,7 +28305,7 @@
         <v>1.82</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT137" t="n">
         <v>1.64</v>
@@ -28511,7 +28511,7 @@
         <v>1</v>
       </c>
       <c r="AT138" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU138" t="n">
         <v>1.25</v>
@@ -28711,10 +28711,10 @@
         <v>1.55</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU139" t="n">
         <v>1.62</v>
@@ -29120,7 +29120,7 @@
         <v>0.86</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU141" t="n">
         <v>1.16</v>
@@ -29526,7 +29526,7 @@
         <v>1.5</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU143" t="n">
         <v>1.63</v>
@@ -29929,7 +29929,7 @@
         <v>2.09</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT145" t="n">
         <v>2.07</v>
@@ -31350,10 +31350,10 @@
         <v>0.83</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU152" t="n">
         <v>1.12</v>
@@ -31553,7 +31553,7 @@
         <v>0.67</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT153" t="n">
         <v>0.73</v>
@@ -31759,7 +31759,7 @@
         <v>1.13</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU154" t="n">
         <v>1.18</v>
@@ -31959,10 +31959,10 @@
         <v>1.42</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU155" t="n">
         <v>1.35</v>
@@ -32162,10 +32162,10 @@
         <v>1.42</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU156" t="n">
         <v>1.39</v>
@@ -32365,10 +32365,10 @@
         <v>2.75</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT157" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU157" t="n">
         <v>1.61</v>
@@ -32568,7 +32568,7 @@
         <v>1.31</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT158" t="n">
         <v>1.21</v>
@@ -32774,7 +32774,7 @@
         <v>1.5</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU159" t="n">
         <v>1.6</v>
@@ -32974,7 +32974,7 @@
         <v>1.54</v>
       </c>
       <c r="AS160" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT160" t="n">
         <v>1.64</v>
@@ -33180,7 +33180,7 @@
         <v>0.86</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU161" t="n">
         <v>1.14</v>
@@ -33383,7 +33383,7 @@
         <v>1.13</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU162" t="n">
         <v>1.2</v>
@@ -33583,10 +33583,10 @@
         <v>1.54</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU163" t="n">
         <v>1.37</v>
@@ -33786,7 +33786,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT164" t="n">
         <v>0.71</v>
@@ -34598,7 +34598,7 @@
         <v>2</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT168" t="n">
         <v>2.07</v>
@@ -34804,7 +34804,7 @@
         <v>2.14</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU169" t="n">
         <v>1.78</v>
@@ -34920,13 +34920,13 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R170" t="n">
         <v>2</v>
       </c>
       <c r="S170" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T170" t="n">
         <v>0</v>
@@ -35043,22 +35043,1037 @@
         <v>0</v>
       </c>
       <c r="BF170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5690868</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45059.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>7</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>3</v>
+      </c>
+      <c r="R171" t="n">
+        <v>8</v>
+      </c>
+      <c r="S171" t="n">
+        <v>11</v>
+      </c>
+      <c r="T171" t="n">
+        <v>0</v>
+      </c>
+      <c r="U171" t="n">
+        <v>0</v>
+      </c>
+      <c r="V171" t="n">
+        <v>0</v>
+      </c>
+      <c r="W171" t="n">
+        <v>0</v>
+      </c>
+      <c r="X171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI171" t="n">
         <v>5</v>
       </c>
-      <c r="BG170" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH170" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI170" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ170" t="n">
+      <c r="BJ171" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5690869</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45059.5</v>
+      </c>
+      <c r="F172" t="n">
         <v>7</v>
       </c>
-      <c r="BK170" t="n">
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>2</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2</v>
+      </c>
+      <c r="K172" t="n">
+        <v>4</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2</v>
+      </c>
+      <c r="M172" t="n">
+        <v>2</v>
+      </c>
+      <c r="N172" t="n">
+        <v>4</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['24', '36']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['17', '30']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>4</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2</v>
+      </c>
+      <c r="S172" t="n">
+        <v>6</v>
+      </c>
+      <c r="T172" t="n">
+        <v>0</v>
+      </c>
+      <c r="U172" t="n">
+        <v>0</v>
+      </c>
+      <c r="V172" t="n">
+        <v>0</v>
+      </c>
+      <c r="W172" t="n">
+        <v>0</v>
+      </c>
+      <c r="X172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF172" t="n">
         <v>3</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5690870</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45060.39583333334</v>
+      </c>
+      <c r="F173" t="n">
+        <v>7</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>2</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>3</v>
+      </c>
+      <c r="L173" t="n">
+        <v>4</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="n">
+        <v>5</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['6', '8', '60', '69']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>6</v>
+      </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
+      <c r="S173" t="n">
+        <v>6</v>
+      </c>
+      <c r="T173" t="n">
+        <v>0</v>
+      </c>
+      <c r="U173" t="n">
+        <v>0</v>
+      </c>
+      <c r="V173" t="n">
+        <v>0</v>
+      </c>
+      <c r="W173" t="n">
+        <v>0</v>
+      </c>
+      <c r="X173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5690871</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45060.39583333334</v>
+      </c>
+      <c r="F174" t="n">
+        <v>7</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>11</v>
+      </c>
+      <c r="R174" t="n">
+        <v>10</v>
+      </c>
+      <c r="S174" t="n">
+        <v>21</v>
+      </c>
+      <c r="T174" t="n">
+        <v>0</v>
+      </c>
+      <c r="U174" t="n">
+        <v>0</v>
+      </c>
+      <c r="V174" t="n">
+        <v>0</v>
+      </c>
+      <c r="W174" t="n">
+        <v>0</v>
+      </c>
+      <c r="X174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5690872</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45060.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>7</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" t="n">
+        <v>3</v>
+      </c>
+      <c r="L175" t="n">
+        <v>3</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>4</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['23', '27', '90+6']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>9</v>
+      </c>
+      <c r="R175" t="n">
+        <v>7</v>
+      </c>
+      <c r="S175" t="n">
+        <v>16</v>
+      </c>
+      <c r="T175" t="n">
+        <v>0</v>
+      </c>
+      <c r="U175" t="n">
+        <v>0</v>
+      </c>
+      <c r="V175" t="n">
+        <v>0</v>
+      </c>
+      <c r="W175" t="n">
+        <v>0</v>
+      </c>
+      <c r="X175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK175"/>
+  <dimension ref="A1:BK178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT8" t="n">
         <v>1.13</v>
@@ -2324,7 +2324,7 @@
         <v>0.87</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT14" t="n">
         <v>2.07</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT16" t="n">
         <v>2.67</v>
@@ -4557,7 +4557,7 @@
         <v>1.6</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU20" t="n">
         <v>1.7</v>
@@ -4963,7 +4963,7 @@
         <v>2.27</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU22" t="n">
         <v>0.95</v>
@@ -5369,7 +5369,7 @@
         <v>2.14</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU24" t="n">
         <v>1.88</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU29" t="n">
         <v>0.83</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT31" t="n">
         <v>2.67</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
         <v>0.73</v>
@@ -7196,7 +7196,7 @@
         <v>1.8</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU33" t="n">
         <v>1.07</v>
@@ -7805,7 +7805,7 @@
         <v>1.13</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU36" t="n">
         <v>1.3</v>
@@ -8008,7 +8008,7 @@
         <v>2.14</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU37" t="n">
         <v>1.83</v>
@@ -9226,7 +9226,7 @@
         <v>1.13</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU43" t="n">
         <v>1.21</v>
@@ -9429,7 +9429,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU44" t="n">
         <v>1.48</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT45" t="n">
         <v>2.67</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
         <v>1.21</v>
@@ -10035,7 +10035,7 @@
         <v>2.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT47" t="n">
         <v>1.64</v>
@@ -10444,7 +10444,7 @@
         <v>1.8</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU49" t="n">
         <v>1.4</v>
@@ -12065,10 +12065,10 @@
         <v>1.75</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU57" t="n">
         <v>0.96</v>
@@ -12268,7 +12268,7 @@
         <v>1.4</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
         <v>1.33</v>
@@ -12471,10 +12471,10 @@
         <v>0.25</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU59" t="n">
         <v>1.08</v>
@@ -13692,7 +13692,7 @@
         <v>2.27</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU65" t="n">
         <v>1.69</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT68" t="n">
         <v>1.13</v>
@@ -14910,7 +14910,7 @@
         <v>2.27</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU71" t="n">
         <v>1.76</v>
@@ -15719,10 +15719,10 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU75" t="n">
         <v>0.9399999999999999</v>
@@ -15925,7 +15925,7 @@
         <v>0.67</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU76" t="n">
         <v>1.14</v>
@@ -16125,7 +16125,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT77" t="n">
         <v>0.73</v>
@@ -16937,7 +16937,7 @@
         <v>1.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT81" t="n">
         <v>1.13</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU82" t="n">
         <v>1.31</v>
@@ -17346,7 +17346,7 @@
         <v>1.8</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU83" t="n">
         <v>1.4</v>
@@ -17549,7 +17549,7 @@
         <v>1.6</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU84" t="n">
         <v>1.44</v>
@@ -17952,7 +17952,7 @@
         <v>0.71</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT86" t="n">
         <v>1.13</v>
@@ -18358,7 +18358,7 @@
         <v>1.86</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT88" t="n">
         <v>1.33</v>
@@ -19170,7 +19170,7 @@
         <v>1.57</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT92" t="n">
         <v>1.13</v>
@@ -19373,10 +19373,10 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU93" t="n">
         <v>0.97</v>
@@ -19782,7 +19782,7 @@
         <v>1.6</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU95" t="n">
         <v>1.56</v>
@@ -20797,7 +20797,7 @@
         <v>0.67</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU100" t="n">
         <v>1.17</v>
@@ -20997,7 +20997,7 @@
         <v>0.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT101" t="n">
         <v>1</v>
@@ -21606,7 +21606,7 @@
         <v>1.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT104" t="n">
         <v>2.07</v>
@@ -21809,7 +21809,7 @@
         <v>1.88</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT105" t="n">
         <v>1.64</v>
@@ -22015,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU106" t="n">
         <v>1.24</v>
@@ -22215,7 +22215,7 @@
         <v>1.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT107" t="n">
         <v>1.21</v>
@@ -22624,7 +22624,7 @@
         <v>1.5</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU109" t="n">
         <v>1.71</v>
@@ -23639,7 +23639,7 @@
         <v>0.87</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU114" t="n">
         <v>1.09</v>
@@ -24042,10 +24042,10 @@
         <v>1.78</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU116" t="n">
         <v>1.02</v>
@@ -24245,7 +24245,7 @@
         <v>1.89</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT117" t="n">
         <v>2.07</v>
@@ -24448,7 +24448,7 @@
         <v>1.33</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT118" t="n">
         <v>1.21</v>
@@ -24654,7 +24654,7 @@
         <v>1</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU119" t="n">
         <v>1.29</v>
@@ -26075,7 +26075,7 @@
         <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU126" t="n">
         <v>1.62</v>
@@ -26681,7 +26681,7 @@
         <v>1.9</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT129" t="n">
         <v>1.64</v>
@@ -26884,7 +26884,7 @@
         <v>1.7</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT130" t="n">
         <v>1.33</v>
@@ -27087,10 +27087,10 @@
         <v>1.6</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU131" t="n">
         <v>1.13</v>
@@ -27496,7 +27496,7 @@
         <v>2.14</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU133" t="n">
         <v>1.82</v>
@@ -27696,7 +27696,7 @@
         <v>0.82</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT134" t="n">
         <v>1.13</v>
@@ -28105,7 +28105,7 @@
         <v>0.87</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU136" t="n">
         <v>1.02</v>
@@ -28917,7 +28917,7 @@
         <v>1.13</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU140" t="n">
         <v>1.12</v>
@@ -29117,7 +29117,7 @@
         <v>0.64</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT141" t="n">
         <v>1</v>
@@ -29320,10 +29320,10 @@
         <v>0.73</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU142" t="n">
         <v>0.97</v>
@@ -30132,10 +30132,10 @@
         <v>1.33</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU146" t="n">
         <v>1.16</v>
@@ -30335,10 +30335,10 @@
         <v>0.67</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU147" t="n">
         <v>1.04</v>
@@ -30538,10 +30538,10 @@
         <v>1.42</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU148" t="n">
         <v>0.9399999999999999</v>
@@ -32977,7 +32977,7 @@
         <v>0.87</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU160" t="n">
         <v>0.99</v>
@@ -33177,7 +33177,7 @@
         <v>1.15</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT161" t="n">
         <v>1.13</v>
@@ -33789,7 +33789,7 @@
         <v>0.67</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU164" t="n">
         <v>1.11</v>
@@ -33989,10 +33989,10 @@
         <v>1.31</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU165" t="n">
         <v>1.05</v>
@@ -34192,7 +34192,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT166" t="n">
         <v>0.73</v>
@@ -36074,6 +36074,615 @@
       </c>
       <c r="BK175" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5690873</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45065.60416666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>8</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>8</v>
+      </c>
+      <c r="R176" t="n">
+        <v>4</v>
+      </c>
+      <c r="S176" t="n">
+        <v>12</v>
+      </c>
+      <c r="T176" t="n">
+        <v>0</v>
+      </c>
+      <c r="U176" t="n">
+        <v>0</v>
+      </c>
+      <c r="V176" t="n">
+        <v>0</v>
+      </c>
+      <c r="W176" t="n">
+        <v>0</v>
+      </c>
+      <c r="X176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5690874</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45066.5</v>
+      </c>
+      <c r="F177" t="n">
+        <v>8</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>2</v>
+      </c>
+      <c r="N177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['38', '52']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>1</v>
+      </c>
+      <c r="R177" t="n">
+        <v>3</v>
+      </c>
+      <c r="S177" t="n">
+        <v>4</v>
+      </c>
+      <c r="T177" t="n">
+        <v>0</v>
+      </c>
+      <c r="U177" t="n">
+        <v>0</v>
+      </c>
+      <c r="V177" t="n">
+        <v>0</v>
+      </c>
+      <c r="W177" t="n">
+        <v>0</v>
+      </c>
+      <c r="X177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5690875</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45066.5</v>
+      </c>
+      <c r="F178" t="n">
+        <v>8</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2</v>
+      </c>
+      <c r="K178" t="n">
+        <v>2</v>
+      </c>
+      <c r="L178" t="n">
+        <v>2</v>
+      </c>
+      <c r="M178" t="n">
+        <v>4</v>
+      </c>
+      <c r="N178" t="n">
+        <v>6</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['61', '62']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['34', '43', '48', '52']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>5</v>
+      </c>
+      <c r="R178" t="n">
+        <v>6</v>
+      </c>
+      <c r="S178" t="n">
+        <v>11</v>
+      </c>
+      <c r="T178" t="n">
+        <v>0</v>
+      </c>
+      <c r="U178" t="n">
+        <v>0</v>
+      </c>
+      <c r="V178" t="n">
+        <v>0</v>
+      </c>
+      <c r="W178" t="n">
+        <v>0</v>
+      </c>
+      <c r="X178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK178"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.67</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT7" t="n">
         <v>0.73</v>
@@ -2730,7 +2730,7 @@
         <v>1.6</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0.8</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU14" t="n">
         <v>1.08</v>
@@ -3542,7 +3542,7 @@
         <v>0.67</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU15" t="n">
         <v>1.02</v>
@@ -3948,7 +3948,7 @@
         <v>0.87</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU17" t="n">
         <v>0.7</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT19" t="n">
         <v>1.13</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT24" t="n">
         <v>1.73</v>
@@ -5772,7 +5772,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT26" t="n">
         <v>1.33</v>
@@ -6181,7 +6181,7 @@
         <v>2.27</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU28" t="n">
         <v>1.12</v>
@@ -6587,7 +6587,7 @@
         <v>0.67</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.02</v>
@@ -7396,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU34" t="n">
         <v>1.71</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU35" t="n">
         <v>1.49</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT37" t="n">
         <v>1.33</v>
@@ -9426,7 +9426,7 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT44" t="n">
         <v>1.73</v>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU46" t="n">
         <v>1.04</v>
@@ -10038,7 +10038,7 @@
         <v>1.47</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU47" t="n">
         <v>0.84</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU48" t="n">
         <v>1.4</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT54" t="n">
         <v>1.13</v>
@@ -11862,10 +11862,10 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU56" t="n">
         <v>1.95</v>
@@ -12677,7 +12677,7 @@
         <v>1.6</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU60" t="n">
         <v>1.64</v>
@@ -13892,10 +13892,10 @@
         <v>1.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU66" t="n">
         <v>1.74</v>
@@ -14504,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU69" t="n">
         <v>1.26</v>
@@ -15313,10 +15313,10 @@
         <v>2.2</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU73" t="n">
         <v>2.01</v>
@@ -15516,7 +15516,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT74" t="n">
         <v>1.33</v>
@@ -16331,7 +16331,7 @@
         <v>1.8</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU78" t="n">
         <v>1.42</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -16734,7 +16734,7 @@
         <v>0.57</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT80" t="n">
         <v>1</v>
@@ -18564,7 +18564,7 @@
         <v>0.87</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU89" t="n">
         <v>1.15</v>
@@ -18767,7 +18767,7 @@
         <v>1.13</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU90" t="n">
         <v>1.14</v>
@@ -18967,10 +18967,10 @@
         <v>2</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU91" t="n">
         <v>1.74</v>
@@ -20188,7 +20188,7 @@
         <v>1.8</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU97" t="n">
         <v>1.38</v>
@@ -20591,7 +20591,7 @@
         <v>0.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT99" t="n">
         <v>1.13</v>
@@ -21203,7 +21203,7 @@
         <v>0.87</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU102" t="n">
         <v>1.13</v>
@@ -21609,7 +21609,7 @@
         <v>1</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU104" t="n">
         <v>0.99</v>
@@ -21812,7 +21812,7 @@
         <v>0.8</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU105" t="n">
         <v>1.11</v>
@@ -22218,7 +22218,7 @@
         <v>1.47</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU107" t="n">
         <v>0.96</v>
@@ -22621,7 +22621,7 @@
         <v>0.88</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT109" t="n">
         <v>0.87</v>
@@ -23839,7 +23839,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT115" t="n">
         <v>0.73</v>
@@ -24248,7 +24248,7 @@
         <v>1.47</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU117" t="n">
         <v>0.91</v>
@@ -24451,7 +24451,7 @@
         <v>0.8</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU118" t="n">
         <v>1.17</v>
@@ -24857,7 +24857,7 @@
         <v>1.13</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU120" t="n">
         <v>1.18</v>
@@ -25057,7 +25057,7 @@
         <v>2.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT121" t="n">
         <v>2.67</v>
@@ -25669,7 +25669,7 @@
         <v>2.27</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU124" t="n">
         <v>1.61</v>
@@ -26072,7 +26072,7 @@
         <v>1.6</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT126" t="n">
         <v>1.33</v>
@@ -26481,7 +26481,7 @@
         <v>1.13</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU128" t="n">
         <v>1.12</v>
@@ -26684,7 +26684,7 @@
         <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU129" t="n">
         <v>1.03</v>
@@ -27493,7 +27493,7 @@
         <v>0.7</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT133" t="n">
         <v>0.87</v>
@@ -28308,7 +28308,7 @@
         <v>1.6</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU137" t="n">
         <v>1.41</v>
@@ -29523,7 +29523,7 @@
         <v>1.55</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT143" t="n">
         <v>1.33</v>
@@ -29726,10 +29726,10 @@
         <v>1.36</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU144" t="n">
         <v>1.85</v>
@@ -29932,7 +29932,7 @@
         <v>1.8</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU145" t="n">
         <v>1.37</v>
@@ -30741,10 +30741,10 @@
         <v>1.75</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU149" t="n">
         <v>1.8</v>
@@ -30947,7 +30947,7 @@
         <v>1</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU150" t="n">
         <v>1.2</v>
@@ -31147,10 +31147,10 @@
         <v>1.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU151" t="n">
         <v>1.63</v>
@@ -32571,7 +32571,7 @@
         <v>2.27</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU158" t="n">
         <v>1.53</v>
@@ -32771,7 +32771,7 @@
         <v>2.77</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT159" t="n">
         <v>2.67</v>
@@ -34398,7 +34398,7 @@
         <v>1</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU167" t="n">
         <v>1.18</v>
@@ -34601,7 +34601,7 @@
         <v>1.6</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU168" t="n">
         <v>1.39</v>
@@ -34801,7 +34801,7 @@
         <v>1.31</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT169" t="n">
         <v>1.13</v>
@@ -36683,6 +36683,615 @@
       </c>
       <c r="BK178" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5690877</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45067.39583333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>8</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="n">
+        <v>2</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>3</v>
+      </c>
+      <c r="R179" t="n">
+        <v>5</v>
+      </c>
+      <c r="S179" t="n">
+        <v>8</v>
+      </c>
+      <c r="T179" t="n">
+        <v>0</v>
+      </c>
+      <c r="U179" t="n">
+        <v>0</v>
+      </c>
+      <c r="V179" t="n">
+        <v>0</v>
+      </c>
+      <c r="W179" t="n">
+        <v>0</v>
+      </c>
+      <c r="X179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5690876</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45067.39583333334</v>
+      </c>
+      <c r="F180" t="n">
+        <v>8</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="n">
+        <v>2</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>2</v>
+      </c>
+      <c r="R180" t="n">
+        <v>4</v>
+      </c>
+      <c r="S180" t="n">
+        <v>6</v>
+      </c>
+      <c r="T180" t="n">
+        <v>0</v>
+      </c>
+      <c r="U180" t="n">
+        <v>0</v>
+      </c>
+      <c r="V180" t="n">
+        <v>0</v>
+      </c>
+      <c r="W180" t="n">
+        <v>0</v>
+      </c>
+      <c r="X180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5690878</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45067.5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>8</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>2</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="n">
+        <v>3</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['49', '88']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>7</v>
+      </c>
+      <c r="R181" t="n">
+        <v>5</v>
+      </c>
+      <c r="S181" t="n">
+        <v>12</v>
+      </c>
+      <c r="T181" t="n">
+        <v>0</v>
+      </c>
+      <c r="U181" t="n">
+        <v>0</v>
+      </c>
+      <c r="V181" t="n">
+        <v>0</v>
+      </c>
+      <c r="W181" t="n">
+        <v>0</v>
+      </c>
+      <c r="X181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.47</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT6" t="n">
         <v>0.87</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT9" t="n">
         <v>1.73</v>
@@ -3339,7 +3339,7 @@
         <v>0.8</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU14" t="n">
         <v>1.08</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT15" t="n">
         <v>1.6</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT16" t="n">
         <v>2.67</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU17" t="n">
         <v>0.7</v>
@@ -4151,7 +4151,7 @@
         <v>1.13</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU18" t="n">
         <v>1.93</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT19" t="n">
         <v>1.13</v>
@@ -4557,7 +4557,7 @@
         <v>1.6</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU20" t="n">
         <v>1.7</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU21" t="n">
         <v>1.14</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT23" t="n">
         <v>1.13</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT24" t="n">
         <v>1.73</v>
@@ -5772,10 +5772,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU26" t="n">
         <v>1.53</v>
@@ -5975,7 +5975,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT27" t="n">
         <v>1.13</v>
@@ -6384,7 +6384,7 @@
         <v>0.8</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU29" t="n">
         <v>0.83</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU30" t="n">
         <v>1.02</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU32" t="n">
         <v>0.9399999999999999</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT33" t="n">
         <v>0.87</v>
@@ -7396,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU34" t="n">
         <v>1.71</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU35" t="n">
         <v>1.49</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU37" t="n">
         <v>1.83</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT40" t="n">
         <v>1.13</v>
@@ -8817,10 +8817,10 @@
         <v>0.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU41" t="n">
         <v>1.13</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU42" t="n">
         <v>1.38</v>
@@ -9426,7 +9426,7 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT44" t="n">
         <v>1.73</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU46" t="n">
         <v>1.04</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU48" t="n">
         <v>1.4</v>
@@ -10441,10 +10441,10 @@
         <v>0.75</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU49" t="n">
         <v>1.4</v>
@@ -10644,7 +10644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT50" t="n">
         <v>1</v>
@@ -10847,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU51" t="n">
         <v>1.12</v>
@@ -11053,7 +11053,7 @@
         <v>1.6</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU52" t="n">
         <v>1.63</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT54" t="n">
         <v>1.13</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT56" t="n">
         <v>1.6</v>
@@ -12268,10 +12268,10 @@
         <v>1.4</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU58" t="n">
         <v>0.95</v>
@@ -12677,7 +12677,7 @@
         <v>1.6</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU60" t="n">
         <v>1.64</v>
@@ -12877,7 +12877,7 @@
         <v>0.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT61" t="n">
         <v>1</v>
@@ -13283,7 +13283,7 @@
         <v>2.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT63" t="n">
         <v>2.67</v>
@@ -13486,10 +13486,10 @@
         <v>0.2</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU64" t="n">
         <v>1.17</v>
@@ -13692,7 +13692,7 @@
         <v>2.27</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU65" t="n">
         <v>1.69</v>
@@ -13892,10 +13892,10 @@
         <v>1.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU66" t="n">
         <v>1.74</v>
@@ -14704,7 +14704,7 @@
         <v>0.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -15313,10 +15313,10 @@
         <v>2.2</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU73" t="n">
         <v>2.01</v>
@@ -15516,10 +15516,10 @@
         <v>1.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU74" t="n">
         <v>1.67</v>
@@ -15719,10 +15719,10 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU75" t="n">
         <v>0.9399999999999999</v>
@@ -15922,7 +15922,7 @@
         <v>0.8</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT76" t="n">
         <v>0.87</v>
@@ -16128,7 +16128,7 @@
         <v>1.47</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU77" t="n">
         <v>0.9399999999999999</v>
@@ -16328,10 +16328,10 @@
         <v>1.67</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU78" t="n">
         <v>1.42</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -16734,7 +16734,7 @@
         <v>0.57</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT80" t="n">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU82" t="n">
         <v>1.31</v>
@@ -17343,7 +17343,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT83" t="n">
         <v>1.73</v>
@@ -17752,7 +17752,7 @@
         <v>2.27</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU85" t="n">
         <v>1.7</v>
@@ -17952,7 +17952,7 @@
         <v>0.71</v>
       </c>
       <c r="AS86" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT86" t="n">
         <v>1.13</v>
@@ -18155,7 +18155,7 @@
         <v>2.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT87" t="n">
         <v>2.67</v>
@@ -18361,7 +18361,7 @@
         <v>0.8</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU88" t="n">
         <v>1.09</v>
@@ -18561,10 +18561,10 @@
         <v>2</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU89" t="n">
         <v>1.15</v>
@@ -18767,7 +18767,7 @@
         <v>1.13</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU90" t="n">
         <v>1.14</v>
@@ -18967,7 +18967,7 @@
         <v>2</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT91" t="n">
         <v>1.6</v>
@@ -19170,7 +19170,7 @@
         <v>1.57</v>
       </c>
       <c r="AS92" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT92" t="n">
         <v>1.13</v>
@@ -19579,7 +19579,7 @@
         <v>1.13</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU94" t="n">
         <v>1.21</v>
@@ -20185,10 +20185,10 @@
         <v>1.86</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU97" t="n">
         <v>1.38</v>
@@ -20591,7 +20591,7 @@
         <v>0.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT99" t="n">
         <v>1.13</v>
@@ -20794,10 +20794,10 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU100" t="n">
         <v>1.17</v>
@@ -21200,7 +21200,7 @@
         <v>1.71</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT102" t="n">
         <v>1.6</v>
@@ -21406,7 +21406,7 @@
         <v>1.6</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU103" t="n">
         <v>1.56</v>
@@ -21606,10 +21606,10 @@
         <v>1.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU104" t="n">
         <v>0.99</v>
@@ -22218,7 +22218,7 @@
         <v>1.47</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU107" t="n">
         <v>0.96</v>
@@ -22621,7 +22621,7 @@
         <v>0.88</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT109" t="n">
         <v>0.87</v>
@@ -22824,7 +22824,7 @@
         <v>0.67</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT110" t="n">
         <v>1.13</v>
@@ -23233,7 +23233,7 @@
         <v>2.27</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU112" t="n">
         <v>1.69</v>
@@ -23433,7 +23433,7 @@
         <v>1.56</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT113" t="n">
         <v>1.13</v>
@@ -23636,10 +23636,10 @@
         <v>1.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU114" t="n">
         <v>1.09</v>
@@ -23839,10 +23839,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU115" t="n">
         <v>1.85</v>
@@ -24042,7 +24042,7 @@
         <v>1.78</v>
       </c>
       <c r="AS116" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT116" t="n">
         <v>1.73</v>
@@ -24248,7 +24248,7 @@
         <v>1.47</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU117" t="n">
         <v>0.91</v>
@@ -24451,7 +24451,7 @@
         <v>0.8</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU118" t="n">
         <v>1.17</v>
@@ -25057,7 +25057,7 @@
         <v>2.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT121" t="n">
         <v>2.67</v>
@@ -25260,7 +25260,7 @@
         <v>2.7</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT122" t="n">
         <v>2.67</v>
@@ -25463,7 +25463,7 @@
         <v>0.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT123" t="n">
         <v>1.13</v>
@@ -25669,7 +25669,7 @@
         <v>2.27</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU124" t="n">
         <v>1.61</v>
@@ -26072,10 +26072,10 @@
         <v>1.6</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU126" t="n">
         <v>1.62</v>
@@ -26275,10 +26275,10 @@
         <v>0.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU127" t="n">
         <v>1.04</v>
@@ -26481,7 +26481,7 @@
         <v>1.13</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU128" t="n">
         <v>1.12</v>
@@ -26681,7 +26681,7 @@
         <v>1.9</v>
       </c>
       <c r="AS129" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT129" t="n">
         <v>1.6</v>
@@ -26887,7 +26887,7 @@
         <v>1.47</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU130" t="n">
         <v>0.92</v>
@@ -27493,7 +27493,7 @@
         <v>0.7</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT133" t="n">
         <v>0.87</v>
@@ -27696,7 +27696,7 @@
         <v>0.82</v>
       </c>
       <c r="AS134" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT134" t="n">
         <v>1.13</v>
@@ -27899,10 +27899,10 @@
         <v>0.73</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU135" t="n">
         <v>1.12</v>
@@ -28102,10 +28102,10 @@
         <v>1.45</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU136" t="n">
         <v>1.02</v>
@@ -29523,10 +29523,10 @@
         <v>1.55</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU143" t="n">
         <v>1.63</v>
@@ -29726,10 +29726,10 @@
         <v>1.36</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU144" t="n">
         <v>1.85</v>
@@ -29929,10 +29929,10 @@
         <v>2.09</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU145" t="n">
         <v>1.37</v>
@@ -30135,7 +30135,7 @@
         <v>0.8</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU146" t="n">
         <v>1.16</v>
@@ -30335,7 +30335,7 @@
         <v>0.67</v>
       </c>
       <c r="AS147" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT147" t="n">
         <v>0.87</v>
@@ -30741,7 +30741,7 @@
         <v>1.75</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT149" t="n">
         <v>1.6</v>
@@ -30947,7 +30947,7 @@
         <v>1</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU150" t="n">
         <v>1.2</v>
@@ -31147,10 +31147,10 @@
         <v>1.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU151" t="n">
         <v>1.63</v>
@@ -31350,7 +31350,7 @@
         <v>0.83</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT152" t="n">
         <v>1</v>
@@ -31553,10 +31553,10 @@
         <v>0.67</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU153" t="n">
         <v>1</v>
@@ -31959,7 +31959,7 @@
         <v>1.42</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT155" t="n">
         <v>1.13</v>
@@ -32165,7 +32165,7 @@
         <v>1.6</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU156" t="n">
         <v>1.39</v>
@@ -32571,7 +32571,7 @@
         <v>2.27</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU158" t="n">
         <v>1.53</v>
@@ -32771,7 +32771,7 @@
         <v>2.77</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT159" t="n">
         <v>2.67</v>
@@ -32974,7 +32974,7 @@
         <v>1.54</v>
       </c>
       <c r="AS160" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT160" t="n">
         <v>1.73</v>
@@ -33583,10 +33583,10 @@
         <v>1.54</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU163" t="n">
         <v>1.37</v>
@@ -33786,7 +33786,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT164" t="n">
         <v>0.87</v>
@@ -33989,10 +33989,10 @@
         <v>1.31</v>
       </c>
       <c r="AS165" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU165" t="n">
         <v>1.05</v>
@@ -34195,7 +34195,7 @@
         <v>1.47</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU166" t="n">
         <v>0.97</v>
@@ -34601,7 +34601,7 @@
         <v>1.6</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU168" t="n">
         <v>1.39</v>
@@ -34801,7 +34801,7 @@
         <v>1.31</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT169" t="n">
         <v>1.13</v>
@@ -35007,7 +35007,7 @@
         <v>1.13</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU170" t="n">
         <v>1.21</v>
@@ -35207,7 +35207,7 @@
         <v>0.86</v>
       </c>
       <c r="AS171" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT171" t="n">
         <v>1</v>
@@ -35410,7 +35410,7 @@
         <v>1.14</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT172" t="n">
         <v>1.13</v>
@@ -35616,7 +35616,7 @@
         <v>2.27</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU173" t="n">
         <v>1.53</v>
@@ -35816,7 +35816,7 @@
         <v>2.64</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT174" t="n">
         <v>2.67</v>
@@ -36425,7 +36425,7 @@
         <v>1.64</v>
       </c>
       <c r="AS177" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT177" t="n">
         <v>1.73</v>
@@ -36631,7 +36631,7 @@
         <v>1.47</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU178" t="n">
         <v>0.97</v>
@@ -36834,7 +36834,7 @@
         <v>1</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU179" t="n">
         <v>1.14</v>
@@ -37034,7 +37034,7 @@
         <v>1.64</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT180" t="n">
         <v>1.6</v>
@@ -37237,10 +37237,10 @@
         <v>2.07</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU181" t="n">
         <v>1.75</v>
@@ -37292,6 +37292,1224 @@
       </c>
       <c r="BK181" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5690879</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45073.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>9</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>2</v>
+      </c>
+      <c r="L182" t="n">
+        <v>2</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>2</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['33', '42']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>5</v>
+      </c>
+      <c r="R182" t="n">
+        <v>5</v>
+      </c>
+      <c r="S182" t="n">
+        <v>10</v>
+      </c>
+      <c r="T182" t="n">
+        <v>0</v>
+      </c>
+      <c r="U182" t="n">
+        <v>0</v>
+      </c>
+      <c r="V182" t="n">
+        <v>0</v>
+      </c>
+      <c r="W182" t="n">
+        <v>0</v>
+      </c>
+      <c r="X182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5690880</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45073.5</v>
+      </c>
+      <c r="F183" t="n">
+        <v>9</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>2</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>2</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['66', '76']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>10</v>
+      </c>
+      <c r="R183" t="n">
+        <v>1</v>
+      </c>
+      <c r="S183" t="n">
+        <v>11</v>
+      </c>
+      <c r="T183" t="n">
+        <v>0</v>
+      </c>
+      <c r="U183" t="n">
+        <v>0</v>
+      </c>
+      <c r="V183" t="n">
+        <v>0</v>
+      </c>
+      <c r="W183" t="n">
+        <v>0</v>
+      </c>
+      <c r="X183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5690881</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45073.5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>9</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="n">
+        <v>2</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>7</v>
+      </c>
+      <c r="R184" t="n">
+        <v>6</v>
+      </c>
+      <c r="S184" t="n">
+        <v>13</v>
+      </c>
+      <c r="T184" t="n">
+        <v>0</v>
+      </c>
+      <c r="U184" t="n">
+        <v>0</v>
+      </c>
+      <c r="V184" t="n">
+        <v>0</v>
+      </c>
+      <c r="W184" t="n">
+        <v>0</v>
+      </c>
+      <c r="X184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5690882</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45074.5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>9</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>2</v>
+      </c>
+      <c r="J185" t="n">
+        <v>2</v>
+      </c>
+      <c r="K185" t="n">
+        <v>4</v>
+      </c>
+      <c r="L185" t="n">
+        <v>3</v>
+      </c>
+      <c r="M185" t="n">
+        <v>2</v>
+      </c>
+      <c r="N185" t="n">
+        <v>5</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['40', '45+4', '66']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['10', '33']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>7</v>
+      </c>
+      <c r="R185" t="n">
+        <v>7</v>
+      </c>
+      <c r="S185" t="n">
+        <v>14</v>
+      </c>
+      <c r="T185" t="n">
+        <v>0</v>
+      </c>
+      <c r="U185" t="n">
+        <v>0</v>
+      </c>
+      <c r="V185" t="n">
+        <v>0</v>
+      </c>
+      <c r="W185" t="n">
+        <v>0</v>
+      </c>
+      <c r="X185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5690883</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45074.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>9</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>2</v>
+      </c>
+      <c r="K186" t="n">
+        <v>2</v>
+      </c>
+      <c r="L186" t="n">
+        <v>3</v>
+      </c>
+      <c r="M186" t="n">
+        <v>2</v>
+      </c>
+      <c r="N186" t="n">
+        <v>5</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['49', '62', '74']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['10', '38']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>8</v>
+      </c>
+      <c r="R186" t="n">
+        <v>2</v>
+      </c>
+      <c r="S186" t="n">
+        <v>10</v>
+      </c>
+      <c r="T186" t="n">
+        <v>0</v>
+      </c>
+      <c r="U186" t="n">
+        <v>0</v>
+      </c>
+      <c r="V186" t="n">
+        <v>0</v>
+      </c>
+      <c r="W186" t="n">
+        <v>0</v>
+      </c>
+      <c r="X186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5690884</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45074.5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>9</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>3</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>4</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['4', '80', '90']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>6</v>
+      </c>
+      <c r="R187" t="n">
+        <v>2</v>
+      </c>
+      <c r="S187" t="n">
+        <v>8</v>
+      </c>
+      <c r="T187" t="n">
+        <v>0</v>
+      </c>
+      <c r="U187" t="n">
+        <v>0</v>
+      </c>
+      <c r="V187" t="n">
+        <v>0</v>
+      </c>
+      <c r="W187" t="n">
+        <v>0</v>
+      </c>
+      <c r="X187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,6 +655,9 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
     <t>['89']</t>
   </si>
   <si>
@@ -878,9 +881,6 @@
   </si>
   <si>
     <t>['16', '63', '69']</t>
-  </si>
-  <si>
-    <t>['17']</t>
   </si>
   <si>
     <t>['19', '63', '83']</t>
@@ -1326,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK194"/>
+  <dimension ref="A1:BK195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,7 +1660,7 @@
         <v>2.25</v>
       </c>
       <c r="AT2">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT5">
         <v>1.25</v>
@@ -2334,7 +2334,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2907,7 +2907,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3480,7 +3480,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q12">
         <v>11</v>
@@ -4053,7 +4053,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4244,7 +4244,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4525,7 +4525,7 @@
         <v>0.88</v>
       </c>
       <c r="AT17">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU17">
         <v>0.7</v>
@@ -4626,7 +4626,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4817,7 +4817,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -5581,7 +5581,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q23">
         <v>17</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT24">
         <v>0.9399999999999999</v>
@@ -5963,7 +5963,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6154,7 +6154,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6536,7 +6536,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6727,7 +6727,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6918,7 +6918,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7008,7 +7008,7 @@
         <v>0.76</v>
       </c>
       <c r="AT30">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU30">
         <v>1.02</v>
@@ -7109,7 +7109,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7196,7 +7196,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT31">
         <v>2.56</v>
@@ -7682,7 +7682,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7873,7 +7873,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7963,7 +7963,7 @@
         <v>1.13</v>
       </c>
       <c r="AT35">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU35">
         <v>1.49</v>
@@ -8064,7 +8064,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -8446,7 +8446,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -9019,7 +9019,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9401,7 +9401,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9592,7 +9592,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9974,7 +9974,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10061,7 +10061,7 @@
         <v>2.33</v>
       </c>
       <c r="AS46">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT46">
         <v>1.5</v>
@@ -10165,7 +10165,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10255,7 +10255,7 @@
         <v>1.13</v>
       </c>
       <c r="AT47">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU47">
         <v>1.04</v>
@@ -10356,7 +10356,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10547,7 +10547,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10929,7 +10929,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11693,7 +11693,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11884,7 +11884,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11971,7 +11971,7 @@
         <v>1.75</v>
       </c>
       <c r="AS56">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT56">
         <v>1.81</v>
@@ -12075,7 +12075,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12266,7 +12266,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12457,7 +12457,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12648,7 +12648,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13030,7 +13030,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -13221,7 +13221,7 @@
         <v>125</v>
       </c>
       <c r="P63" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13412,7 +13412,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13794,7 +13794,7 @@
         <v>112</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13884,7 +13884,7 @@
         <v>1.56</v>
       </c>
       <c r="AT66">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU66">
         <v>1.74</v>
@@ -13985,7 +13985,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14367,7 +14367,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14558,7 +14558,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q70">
         <v>8</v>
@@ -14940,7 +14940,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15322,7 +15322,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15513,7 +15513,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15704,7 +15704,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15982,7 +15982,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT77">
         <v>0.6899999999999999</v>
@@ -16086,7 +16086,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16176,7 +16176,7 @@
         <v>1.88</v>
       </c>
       <c r="AT78">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU78">
         <v>1.42</v>
@@ -16659,7 +16659,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16850,7 +16850,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16937,7 +16937,7 @@
         <v>1.67</v>
       </c>
       <c r="AS82">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT82">
         <v>1.06</v>
@@ -17232,7 +17232,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17614,7 +17614,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17805,7 +17805,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17996,7 +17996,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18277,7 +18277,7 @@
         <v>1.13</v>
       </c>
       <c r="AT89">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU89">
         <v>1.14</v>
@@ -18847,7 +18847,7 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT92">
         <v>0.88</v>
@@ -18951,7 +18951,7 @@
         <v>147</v>
       </c>
       <c r="P93" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q93">
         <v>6</v>
@@ -19524,7 +19524,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19715,7 +19715,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20097,7 +20097,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20479,7 +20479,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>0</v>
@@ -20861,7 +20861,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -21052,7 +21052,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21434,7 +21434,7 @@
         <v>143</v>
       </c>
       <c r="P106" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21712,10 +21712,10 @@
         <v>1.5</v>
       </c>
       <c r="AS107">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT107">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU107">
         <v>0.96</v>
@@ -21816,7 +21816,7 @@
         <v>112</v>
       </c>
       <c r="P108" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22389,7 +22389,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22962,7 +22962,7 @@
         <v>159</v>
       </c>
       <c r="P114" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23344,7 +23344,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23434,7 +23434,7 @@
         <v>0.75</v>
       </c>
       <c r="AT116">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU116">
         <v>1.17</v>
@@ -23535,7 +23535,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23622,7 +23622,7 @@
         <v>1.89</v>
       </c>
       <c r="AS117">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT117">
         <v>1.81</v>
@@ -23726,7 +23726,7 @@
         <v>162</v>
       </c>
       <c r="P118" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -24108,7 +24108,7 @@
         <v>164</v>
       </c>
       <c r="P120" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24299,7 +24299,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24490,7 +24490,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -25063,7 +25063,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25254,7 +25254,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q126">
         <v>1</v>
@@ -25445,7 +25445,7 @@
         <v>169</v>
       </c>
       <c r="P127" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25535,7 +25535,7 @@
         <v>2.31</v>
       </c>
       <c r="AT127">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU127">
         <v>1.61</v>
@@ -25636,7 +25636,7 @@
         <v>170</v>
       </c>
       <c r="P128" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -26209,7 +26209,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26296,7 +26296,7 @@
         <v>1.7</v>
       </c>
       <c r="AS131">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT131">
         <v>1.25</v>
@@ -26400,7 +26400,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26591,7 +26591,7 @@
         <v>86</v>
       </c>
       <c r="P133" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26782,7 +26782,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -27355,7 +27355,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27546,7 +27546,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -27737,7 +27737,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -28397,7 +28397,7 @@
         <v>0.73</v>
       </c>
       <c r="AS142">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT142">
         <v>0.88</v>
@@ -28591,7 +28591,7 @@
         <v>2.25</v>
       </c>
       <c r="AT143">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU143">
         <v>1.85</v>
@@ -29074,7 +29074,7 @@
         <v>183</v>
       </c>
       <c r="P146" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29352,7 +29352,7 @@
         <v>1.42</v>
       </c>
       <c r="AS147">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT147">
         <v>1.81</v>
@@ -30119,7 +30119,7 @@
         <v>1.56</v>
       </c>
       <c r="AT151">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU151">
         <v>1.63</v>
@@ -30411,7 +30411,7 @@
         <v>94</v>
       </c>
       <c r="P153" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -31456,7 +31456,7 @@
         <v>2.31</v>
       </c>
       <c r="AT158">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU158">
         <v>1.53</v>
@@ -32981,7 +32981,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS166">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT166">
         <v>0.6899999999999999</v>
@@ -33276,7 +33276,7 @@
         <v>99</v>
       </c>
       <c r="P168" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33467,7 +33467,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -34422,7 +34422,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q174">
         <v>11</v>
@@ -34613,7 +34613,7 @@
         <v>198</v>
       </c>
       <c r="P175" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q175">
         <v>9</v>
@@ -35273,7 +35273,7 @@
         <v>1.21</v>
       </c>
       <c r="AS178">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT178">
         <v>1.25</v>
@@ -35658,7 +35658,7 @@
         <v>1.13</v>
       </c>
       <c r="AT180">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU180">
         <v>1.14</v>
@@ -36995,7 +36995,7 @@
         <v>1.88</v>
       </c>
       <c r="AT187">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU187">
         <v>1.36</v>
@@ -37183,7 +37183,7 @@
         <v>1</v>
       </c>
       <c r="AS188">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT188">
         <v>0.9399999999999999</v>
@@ -38051,7 +38051,7 @@
         <v>211</v>
       </c>
       <c r="P193" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38332,7 +38332,7 @@
         <v>1.27</v>
       </c>
       <c r="AT194">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AU194">
         <v>1.12</v>
@@ -38384,6 +38384,197 @@
       </c>
       <c r="BK194">
         <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>6351083</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45085.5</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>68</v>
+      </c>
+      <c r="H195" t="s">
+        <v>75</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195" t="s">
+        <v>213</v>
+      </c>
+      <c r="P195" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <v>3</v>
+      </c>
+      <c r="S195">
+        <v>3</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+      <c r="U195">
+        <v>0</v>
+      </c>
+      <c r="V195">
+        <v>0</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+      <c r="AB195">
+        <v>0</v>
+      </c>
+      <c r="AC195">
+        <v>3</v>
+      </c>
+      <c r="AD195">
+        <v>3.5</v>
+      </c>
+      <c r="AE195">
+        <v>2.2</v>
+      </c>
+      <c r="AF195">
+        <v>0</v>
+      </c>
+      <c r="AG195">
+        <v>0</v>
+      </c>
+      <c r="AH195">
+        <v>0</v>
+      </c>
+      <c r="AI195">
+        <v>0</v>
+      </c>
+      <c r="AJ195">
+        <v>1.95</v>
+      </c>
+      <c r="AK195">
+        <v>1.85</v>
+      </c>
+      <c r="AL195">
+        <v>0</v>
+      </c>
+      <c r="AM195">
+        <v>0</v>
+      </c>
+      <c r="AN195">
+        <v>0</v>
+      </c>
+      <c r="AO195">
+        <v>0</v>
+      </c>
+      <c r="AP195">
+        <v>0</v>
+      </c>
+      <c r="AQ195">
+        <v>1.39</v>
+      </c>
+      <c r="AR195">
+        <v>1.34</v>
+      </c>
+      <c r="AS195">
+        <v>1.38</v>
+      </c>
+      <c r="AT195">
+        <v>1.33</v>
+      </c>
+      <c r="AU195">
+        <v>0.99</v>
+      </c>
+      <c r="AV195">
+        <v>1.15</v>
+      </c>
+      <c r="AW195">
+        <v>2.14</v>
+      </c>
+      <c r="AX195">
+        <v>0</v>
+      </c>
+      <c r="AY195">
+        <v>0</v>
+      </c>
+      <c r="AZ195">
+        <v>0</v>
+      </c>
+      <c r="BA195">
+        <v>0</v>
+      </c>
+      <c r="BB195">
+        <v>0</v>
+      </c>
+      <c r="BC195">
+        <v>0</v>
+      </c>
+      <c r="BD195">
+        <v>0</v>
+      </c>
+      <c r="BE195">
+        <v>0</v>
+      </c>
+      <c r="BF195">
+        <v>3</v>
+      </c>
+      <c r="BG195">
+        <v>0</v>
+      </c>
+      <c r="BH195">
+        <v>0</v>
+      </c>
+      <c r="BI195">
+        <v>3</v>
+      </c>
+      <c r="BJ195">
+        <v>3</v>
+      </c>
+      <c r="BK195">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -966,6 +966,9 @@
   <si>
     <t>['90+6', '105']</t>
   </si>
+  <si>
+    <t>['47']</t>
+  </si>
 </sst>
 </file>
 
@@ -38433,16 +38436,16 @@
         <v>213</v>
       </c>
       <c r="P195" t="s">
-        <v>149</v>
+        <v>317</v>
       </c>
       <c r="Q195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S195">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T195">
         <v>0</v>
@@ -38559,22 +38562,22 @@
         <v>0</v>
       </c>
       <c r="BF195">
+        <v>4</v>
+      </c>
+      <c r="BG195">
         <v>3</v>
       </c>
-      <c r="BG195">
-        <v>0</v>
-      </c>
       <c r="BH195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI195">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ195">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BK195">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="319">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>['17']</t>
+  </si>
+  <si>
+    <t>['19', '46', '61', '84', '86']</t>
   </si>
   <si>
     <t>['89']</t>
@@ -1329,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK195"/>
+  <dimension ref="A1:BK196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1764,7 +1767,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2337,7 +2340,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2809,7 +2812,7 @@
         <v>0.75</v>
       </c>
       <c r="AT8">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2910,7 +2913,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -3292,7 +3295,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3483,7 +3486,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q12">
         <v>11</v>
@@ -3570,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT12">
         <v>1.5</v>
@@ -4056,7 +4059,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4247,7 +4250,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4438,7 +4441,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4629,7 +4632,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4820,7 +4823,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q19">
         <v>12</v>
@@ -4910,7 +4913,7 @@
         <v>1.56</v>
       </c>
       <c r="AT19">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU19">
         <v>1.93</v>
@@ -5098,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT20">
         <v>1.25</v>
@@ -5584,7 +5587,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q23">
         <v>17</v>
@@ -5966,7 +5969,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6157,7 +6160,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6247,7 +6250,7 @@
         <v>0.88</v>
       </c>
       <c r="AT26">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU26">
         <v>1</v>
@@ -6539,7 +6542,7 @@
         <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6730,7 +6733,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6921,7 +6924,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7112,7 +7115,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7685,7 +7688,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7876,7 +7879,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8067,7 +8070,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -8449,7 +8452,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8536,10 +8539,10 @@
         <v>1.33</v>
       </c>
       <c r="AS38">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT38">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU38">
         <v>1.63</v>
@@ -9022,7 +9025,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9404,7 +9407,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9595,7 +9598,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9977,7 +9980,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10168,7 +10171,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10359,7 +10362,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10550,7 +10553,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10932,7 +10935,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11213,7 +11216,7 @@
         <v>2.31</v>
       </c>
       <c r="AT52">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU52">
         <v>1.62</v>
@@ -11401,7 +11404,7 @@
         <v>0.25</v>
       </c>
       <c r="AS53">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT53">
         <v>0.6899999999999999</v>
@@ -11696,7 +11699,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11887,7 +11890,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -12078,7 +12081,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12269,7 +12272,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12460,7 +12463,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12651,7 +12654,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12738,7 +12741,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT60">
         <v>1.81</v>
@@ -12932,7 +12935,7 @@
         <v>1.13</v>
       </c>
       <c r="AT61">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU61">
         <v>1.27</v>
@@ -13033,7 +13036,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -13224,7 +13227,7 @@
         <v>125</v>
       </c>
       <c r="P63" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13415,7 +13418,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13797,7 +13800,7 @@
         <v>112</v>
       </c>
       <c r="P66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13988,7 +13991,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14370,7 +14373,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14460,7 +14463,7 @@
         <v>1.13</v>
       </c>
       <c r="AT69">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU69">
         <v>1.17</v>
@@ -14561,7 +14564,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q70">
         <v>8</v>
@@ -14943,7 +14946,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15030,7 +15033,7 @@
         <v>2.4</v>
       </c>
       <c r="AS72">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT72">
         <v>2.56</v>
@@ -15325,7 +15328,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15516,7 +15519,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15707,7 +15710,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16089,7 +16092,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16662,7 +16665,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16853,7 +16856,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17235,7 +17238,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17322,7 +17325,7 @@
         <v>1.17</v>
       </c>
       <c r="AS84">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT84">
         <v>0.88</v>
@@ -17617,7 +17620,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17808,7 +17811,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17999,7 +18002,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18089,7 +18092,7 @@
         <v>1.13</v>
       </c>
       <c r="AT88">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU88">
         <v>0.93</v>
@@ -18954,7 +18957,7 @@
         <v>147</v>
       </c>
       <c r="P93" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q93">
         <v>6</v>
@@ -19423,7 +19426,7 @@
         <v>1.43</v>
       </c>
       <c r="AS95">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT95">
         <v>1.81</v>
@@ -19527,7 +19530,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19718,7 +19721,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20100,7 +20103,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20381,7 +20384,7 @@
         <v>2.25</v>
       </c>
       <c r="AT100">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU100">
         <v>1.86</v>
@@ -20482,7 +20485,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q101">
         <v>0</v>
@@ -20864,7 +20867,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20951,7 +20954,7 @@
         <v>1.75</v>
       </c>
       <c r="AS103">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT103">
         <v>1.25</v>
@@ -21055,7 +21058,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21437,7 +21440,7 @@
         <v>143</v>
       </c>
       <c r="P106" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21819,7 +21822,7 @@
         <v>112</v>
       </c>
       <c r="P108" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22291,7 +22294,7 @@
         <v>1.88</v>
       </c>
       <c r="AT110">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU110">
         <v>1.4</v>
@@ -22392,7 +22395,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22670,7 +22673,7 @@
         <v>0.78</v>
       </c>
       <c r="AS112">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT112">
         <v>0.9399999999999999</v>
@@ -22965,7 +22968,7 @@
         <v>159</v>
       </c>
       <c r="P114" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23347,7 +23350,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23538,7 +23541,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23729,7 +23732,7 @@
         <v>162</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -24111,7 +24114,7 @@
         <v>164</v>
       </c>
       <c r="P120" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24302,7 +24305,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24493,7 +24496,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -25066,7 +25069,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25156,7 +25159,7 @@
         <v>0.76</v>
       </c>
       <c r="AT125">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU125">
         <v>1.11</v>
@@ -25257,7 +25260,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q126">
         <v>1</v>
@@ -25448,7 +25451,7 @@
         <v>169</v>
       </c>
       <c r="P127" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25639,7 +25642,7 @@
         <v>170</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25917,7 +25920,7 @@
         <v>1.7</v>
       </c>
       <c r="AS129">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT129">
         <v>1.06</v>
@@ -26212,7 +26215,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26403,7 +26406,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26594,7 +26597,7 @@
         <v>86</v>
       </c>
       <c r="P133" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26785,7 +26788,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -26875,7 +26878,7 @@
         <v>1.13</v>
       </c>
       <c r="AT134">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU134">
         <v>1.04</v>
@@ -27358,7 +27361,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27445,7 +27448,7 @@
         <v>1.82</v>
       </c>
       <c r="AS137">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT137">
         <v>1.5</v>
@@ -27549,7 +27552,7 @@
         <v>86</v>
       </c>
       <c r="P138" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -28122,7 +28125,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28504,7 +28507,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -29077,7 +29080,7 @@
         <v>183</v>
       </c>
       <c r="P146" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29268,7 +29271,7 @@
         <v>168</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29459,7 +29462,7 @@
         <v>184</v>
       </c>
       <c r="P148" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29841,7 +29844,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30032,7 +30035,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30223,7 +30226,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q152">
         <v>3</v>
@@ -30414,7 +30417,7 @@
         <v>94</v>
       </c>
       <c r="P153" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -30605,7 +30608,7 @@
         <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -30695,7 +30698,7 @@
         <v>1.13</v>
       </c>
       <c r="AT154">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU154">
         <v>1.18</v>
@@ -30796,7 +30799,7 @@
         <v>187</v>
       </c>
       <c r="P155" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q155">
         <v>8</v>
@@ -30883,7 +30886,7 @@
         <v>1.42</v>
       </c>
       <c r="AS155">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT155">
         <v>1.25</v>
@@ -31178,7 +31181,7 @@
         <v>86</v>
       </c>
       <c r="P157" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31369,7 +31372,7 @@
         <v>189</v>
       </c>
       <c r="P158" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31751,7 +31754,7 @@
         <v>86</v>
       </c>
       <c r="P160" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q160">
         <v>9</v>
@@ -31942,7 +31945,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -32032,7 +32035,7 @@
         <v>0.75</v>
       </c>
       <c r="AT161">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU161">
         <v>1.14</v>
@@ -32133,7 +32136,7 @@
         <v>191</v>
       </c>
       <c r="P162" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32897,7 +32900,7 @@
         <v>194</v>
       </c>
       <c r="P166" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -33088,7 +33091,7 @@
         <v>159</v>
       </c>
       <c r="P167" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33175,7 +33178,7 @@
         <v>2</v>
       </c>
       <c r="AS167">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT167">
         <v>1.81</v>
@@ -33279,7 +33282,7 @@
         <v>99</v>
       </c>
       <c r="P168" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33470,7 +33473,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -33852,7 +33855,7 @@
         <v>196</v>
       </c>
       <c r="P171" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -33942,7 +33945,7 @@
         <v>0.76</v>
       </c>
       <c r="AT171">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU171">
         <v>1.11</v>
@@ -34043,7 +34046,7 @@
         <v>86</v>
       </c>
       <c r="P172" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -34234,7 +34237,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34425,7 +34428,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q174">
         <v>11</v>
@@ -34616,7 +34619,7 @@
         <v>198</v>
       </c>
       <c r="P175" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q175">
         <v>9</v>
@@ -34703,7 +34706,7 @@
         <v>1.21</v>
       </c>
       <c r="AS175">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT175">
         <v>1.06</v>
@@ -34998,7 +35001,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q177">
         <v>1</v>
@@ -35189,7 +35192,7 @@
         <v>199</v>
       </c>
       <c r="P178" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35571,7 +35574,7 @@
         <v>131</v>
       </c>
       <c r="P180" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -35953,7 +35956,7 @@
         <v>202</v>
       </c>
       <c r="P182" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q182">
         <v>7</v>
@@ -36043,7 +36046,7 @@
         <v>0.88</v>
       </c>
       <c r="AT182">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AU182">
         <v>1.01</v>
@@ -36526,7 +36529,7 @@
         <v>205</v>
       </c>
       <c r="P185" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36717,7 +36720,7 @@
         <v>206</v>
       </c>
       <c r="P186" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q186">
         <v>8</v>
@@ -36908,7 +36911,7 @@
         <v>207</v>
       </c>
       <c r="P187" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q187">
         <v>6</v>
@@ -37099,7 +37102,7 @@
         <v>208</v>
       </c>
       <c r="P188" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -37290,7 +37293,7 @@
         <v>147</v>
       </c>
       <c r="P189" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q189">
         <v>5</v>
@@ -37481,7 +37484,7 @@
         <v>133</v>
       </c>
       <c r="P190" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -37672,7 +37675,7 @@
         <v>209</v>
       </c>
       <c r="P191" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -37759,7 +37762,7 @@
         <v>2.67</v>
       </c>
       <c r="AS191">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT191">
         <v>2.56</v>
@@ -38054,7 +38057,7 @@
         <v>211</v>
       </c>
       <c r="P193" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38245,7 +38248,7 @@
         <v>212</v>
       </c>
       <c r="P194" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38335,7 +38338,7 @@
         <v>1.27</v>
       </c>
       <c r="AT194">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="AU194">
         <v>1.12</v>
@@ -38436,7 +38439,7 @@
         <v>213</v>
       </c>
       <c r="P195" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q195">
         <v>1</v>
@@ -38523,10 +38526,10 @@
         <v>1.34</v>
       </c>
       <c r="AS195">
+        <v>1.34</v>
+      </c>
+      <c r="AT195">
         <v>1.38</v>
-      </c>
-      <c r="AT195">
-        <v>1.33</v>
       </c>
       <c r="AU195">
         <v>0.99</v>
@@ -38578,6 +38581,197 @@
       </c>
       <c r="BK195">
         <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>6351084</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45088.5</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>75</v>
+      </c>
+      <c r="H196" t="s">
+        <v>68</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>5</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>5</v>
+      </c>
+      <c r="O196" t="s">
+        <v>214</v>
+      </c>
+      <c r="P196" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q196">
+        <v>5</v>
+      </c>
+      <c r="R196">
+        <v>2</v>
+      </c>
+      <c r="S196">
+        <v>7</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+      <c r="U196">
+        <v>0</v>
+      </c>
+      <c r="V196">
+        <v>0</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+      <c r="AB196">
+        <v>0</v>
+      </c>
+      <c r="AC196">
+        <v>0</v>
+      </c>
+      <c r="AD196">
+        <v>0</v>
+      </c>
+      <c r="AE196">
+        <v>0</v>
+      </c>
+      <c r="AF196">
+        <v>0</v>
+      </c>
+      <c r="AG196">
+        <v>0</v>
+      </c>
+      <c r="AH196">
+        <v>0</v>
+      </c>
+      <c r="AI196">
+        <v>0</v>
+      </c>
+      <c r="AJ196">
+        <v>0</v>
+      </c>
+      <c r="AK196">
+        <v>0</v>
+      </c>
+      <c r="AL196">
+        <v>0</v>
+      </c>
+      <c r="AM196">
+        <v>0</v>
+      </c>
+      <c r="AN196">
+        <v>0</v>
+      </c>
+      <c r="AO196">
+        <v>0</v>
+      </c>
+      <c r="AP196">
+        <v>0</v>
+      </c>
+      <c r="AQ196">
+        <v>1.33</v>
+      </c>
+      <c r="AR196">
+        <v>1.38</v>
+      </c>
+      <c r="AS196">
+        <v>1.38</v>
+      </c>
+      <c r="AT196">
+        <v>1.34</v>
+      </c>
+      <c r="AU196">
+        <v>1.42</v>
+      </c>
+      <c r="AV196">
+        <v>0.97</v>
+      </c>
+      <c r="AW196">
+        <v>2.39</v>
+      </c>
+      <c r="AX196">
+        <v>0</v>
+      </c>
+      <c r="AY196">
+        <v>0</v>
+      </c>
+      <c r="AZ196">
+        <v>0</v>
+      </c>
+      <c r="BA196">
+        <v>0</v>
+      </c>
+      <c r="BB196">
+        <v>0</v>
+      </c>
+      <c r="BC196">
+        <v>0</v>
+      </c>
+      <c r="BD196">
+        <v>0</v>
+      </c>
+      <c r="BE196">
+        <v>0</v>
+      </c>
+      <c r="BF196">
+        <v>5</v>
+      </c>
+      <c r="BG196">
+        <v>4</v>
+      </c>
+      <c r="BH196">
+        <v>5</v>
+      </c>
+      <c r="BI196">
+        <v>3</v>
+      </c>
+      <c r="BJ196">
+        <v>10</v>
+      </c>
+      <c r="BK196">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
